--- a/vyz/hse/tables/perm/История.xlsx
+++ b/vyz/hse/tables/perm/История.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>Образовательная программа "История"</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Количество платных мест:</t>
   </si>
   <si>
-    <t>Время формирования: 19.07.2022 17:30:00</t>
+    <t>Время формирования: 26.07.2022 14:55:49</t>
   </si>
   <si>
     <t>Результаты, зачтенные по Олимпиадам школьников</t>
@@ -172,6 +172,21 @@
     <t>4</t>
   </si>
   <si>
+    <t>00-000007406</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
     <t>160-136-563 31</t>
   </si>
   <si>
@@ -184,6 +199,9 @@
     <t>291</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>169-266-595 22</t>
   </si>
   <si>
@@ -196,7 +214,7 @@
     <t>289</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>140-650-052 13</t>
@@ -208,7 +226,7 @@
     <t>288</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>157-693-989 41</t>
@@ -220,7 +238,7 @@
     <t>287</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>169-268-768 33</t>
@@ -232,7 +250,7 @@
     <t>285</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>159-017-575 78</t>
@@ -244,7 +262,7 @@
     <t>283</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>168-908-580 28</t>
@@ -253,7 +271,7 @@
     <t>282</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>160-297-438 67</t>
@@ -265,7 +283,7 @@
     <t>95</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>205-092-071 20</t>
@@ -274,7 +292,7 @@
     <t>281</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>169-235-276 92</t>
@@ -283,7 +301,7 @@
     <t>279</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>180-167-032 44</t>
@@ -295,7 +313,7 @@
     <t>275</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>162-660-449 65</t>
@@ -304,19 +322,16 @@
     <t>273</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>167-216-397 80</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>271</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>193-228-559 89</t>
@@ -328,13 +343,13 @@
     <t>269</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>202-279-451 37</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>193-483-781 14</t>
@@ -343,7 +358,7 @@
     <t>79</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>188-110-941 75</t>
@@ -352,7 +367,7 @@
     <t>267</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>150-847-082 62</t>
@@ -361,7 +376,7 @@
     <t>266</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>190-620-182 47</t>
@@ -370,7 +385,7 @@
     <t>265</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>152-780-357 70</t>
@@ -379,7 +394,7 @@
     <t>К; Б</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>158-150-320 48</t>
@@ -391,7 +406,7 @@
     <t>262</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>190-191-840 67</t>
@@ -400,7 +415,7 @@
     <t>261</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>182-791-384 05</t>
@@ -412,7 +427,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>157-266-448 91</t>
@@ -427,16 +442,28 @@
     <t>260</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>209-436-908 78</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>158-102-071 33</t>
   </si>
   <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>157-329-105 69</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>188-650-854 26</t>
@@ -445,25 +472,31 @@
     <t>258</t>
   </si>
   <si>
-    <t>30</t>
+    <t>33</t>
   </si>
   <si>
     <t>187-566-744 37</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
-    <t>31</t>
+    <t>34</t>
   </si>
   <si>
     <t>203-473-776 50</t>
   </si>
   <si>
-    <t>32</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>202-587-423 48</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>158-369-013 93</t>
@@ -472,7 +505,7 @@
     <t>256</t>
   </si>
   <si>
-    <t>33</t>
+    <t>37</t>
   </si>
   <si>
     <t>200-977-269 61</t>
@@ -481,7 +514,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>34</t>
+    <t>38</t>
   </si>
   <si>
     <t>158-179-295 09</t>
@@ -490,7 +523,7 @@
     <t>255</t>
   </si>
   <si>
-    <t>35</t>
+    <t>39</t>
   </si>
   <si>
     <t>159-052-934 81</t>
@@ -499,13 +532,22 @@
     <t>254</t>
   </si>
   <si>
-    <t>36</t>
+    <t>40</t>
   </si>
   <si>
     <t>174-887-525 31</t>
   </si>
   <si>
-    <t>37</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>195-133-500 63</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>159-754-275 18</t>
@@ -514,10 +556,7 @@
     <t>63</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>43</t>
   </si>
   <si>
     <t>176-947-918 44</t>
@@ -526,7 +565,7 @@
     <t>80</t>
   </si>
   <si>
-    <t>39</t>
+    <t>44</t>
   </si>
   <si>
     <t>164-523-400 48</t>
@@ -535,7 +574,7 @@
     <t>249</t>
   </si>
   <si>
-    <t>40</t>
+    <t>45</t>
   </si>
   <si>
     <t>193-488-207 09</t>
@@ -544,7 +583,7 @@
     <t>248</t>
   </si>
   <si>
-    <t>41</t>
+    <t>46</t>
   </si>
   <si>
     <t>146-715-068 69</t>
@@ -556,34 +595,73 @@
     <t>247</t>
   </si>
   <si>
-    <t>42</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>158-615-493 98</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>164-809-898 17</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>162-499-428 99</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>178-304-647 87</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>155-920-558 80</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>158-864-554 26</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>158-615-493 98</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>164-809-898 17</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>158-890-474 26</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>147-440-996 84</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>158-726-509 03</t>
@@ -592,22 +670,28 @@
     <t>240</t>
   </si>
   <si>
-    <t>46</t>
+    <t>56</t>
   </si>
   <si>
     <t>168-118-961 95</t>
   </si>
   <si>
-    <t>47</t>
+    <t>57</t>
+  </si>
+  <si>
+    <t>180-090-876 61</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
   <si>
     <t>157-724-223 78</t>
   </si>
   <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>59</t>
   </si>
   <si>
     <t>162-499-476 06</t>
@@ -616,7 +700,13 @@
     <t>236</t>
   </si>
   <si>
-    <t>49</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>172-122-449 31</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>146-751-792 94</t>
@@ -628,19 +718,19 @@
     <t>235</t>
   </si>
   <si>
-    <t>50</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>164-289-553 00</t>
   </si>
   <si>
     <t>174-202-578 49</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>234</t>
   </si>
   <si>
-    <t>51</t>
+    <t>64</t>
   </si>
   <si>
     <t>164-863-631 99</t>
@@ -649,87 +739,60 @@
     <t>231</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>141-904-524 40</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>53</t>
+    <t>177-126-884 97</t>
+  </si>
+  <si>
+    <t>200-498-298 50</t>
   </si>
   <si>
     <t>204-577-305 52</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>229</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>158-635-274 99</t>
+    <t>171-528-514 64</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>178-122-911 74</t>
   </si>
   <si>
     <t>227</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>178-122-911 74</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>157-652-447 93</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>180-474-740 76</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
     <t>198-079-411 21</t>
   </si>
   <si>
-    <t>59</t>
+    <t>158-090-472 77</t>
+  </si>
+  <si>
+    <t>224</t>
   </si>
   <si>
     <t>189-540-293 11</t>
   </si>
   <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>167-708-987 28</t>
   </si>
   <si>
     <t>223</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>157-380-746 90</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>171-856-020 72</t>
   </si>
   <si>
@@ -739,19 +802,25 @@
     <t>142-528-663 59</t>
   </si>
   <si>
-    <t>64</t>
+    <t>151-040-828 11</t>
+  </si>
+  <si>
+    <t>218</t>
   </si>
   <si>
     <t>162-057-897 72</t>
   </si>
   <si>
-    <t>218</t>
+    <t>151-908-318 60</t>
+  </si>
+  <si>
+    <t>217</t>
   </si>
   <si>
     <t>168-824-402 00</t>
   </si>
   <si>
-    <t>217</t>
+    <t>190-883-607 04</t>
   </si>
   <si>
     <t>177-436-820 03</t>
@@ -772,9 +841,6 @@
     <t>144-133-949 45</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>207-325-493 47</t>
   </si>
   <si>
@@ -802,6 +868,9 @@
     <t>167-608-814 02</t>
   </si>
   <si>
+    <t>167-179-338 04</t>
+  </si>
+  <si>
     <t>167-546-924 13</t>
   </si>
   <si>
@@ -832,6 +901,9 @@
     <t>182</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>159-900-681 00</t>
   </si>
   <si>
@@ -844,27 +916,57 @@
     <t>169</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>158-467-181 05</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>160-599-199 97</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>143-097-295 63</t>
   </si>
   <si>
     <t>166</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>202-932-598 49</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>162-692-021 64</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>165-477-624 03</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>134-634-655 60</t>
   </si>
   <si>
@@ -874,46 +976,94 @@
     <t>К</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>203-093-007 02</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>204-718-455 51</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>157-652-690 01</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>156-943-154 93</t>
   </si>
   <si>
     <t>142</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>158-817-479 19</t>
   </si>
   <si>
     <t>141</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>164-927-799 23</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>157-236-455 75</t>
   </si>
   <si>
-    <t>124</t>
+    <t>115</t>
   </si>
   <si>
     <t>161-179-462 66</t>
   </si>
   <si>
-    <t>110</t>
+    <t>116</t>
+  </si>
+  <si>
+    <t>153-410-404 14</t>
+  </si>
+  <si>
+    <t>117</t>
   </si>
   <si>
     <t>159-093-021 73</t>
   </si>
   <si>
-    <t>153-410-404 14</t>
+    <t>118</t>
   </si>
   <si>
     <t>154-062-627 43</t>
   </si>
   <si>
-    <t>157-652-690 01</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>160-328-678 56</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -1236,6 +1386,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1255,7 +1411,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="BT113"/>
+  <dimension ref="BT137"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1645,11 +1801,11 @@
       </c>
       <c r="X18" s="33" t="e"/>
       <c r="Y18" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z18" s="33" t="e"/>
       <c r="AA18" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB18" s="33" t="e"/>
       <c r="AC18" s="33" t="s">
@@ -1827,29 +1983,29 @@
       </c>
       <c r="J21" s="27" t="e"/>
       <c r="K21" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21" s="27" t="e"/>
       <c r="M21" s="27" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N21" s="27" t="e"/>
       <c r="O21" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P21" s="27" t="e"/>
       <c r="Q21" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R21" s="27" t="e"/>
       <c r="S21" s="31" t="e"/>
       <c r="T21" s="32" t="e"/>
       <c r="U21" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V21" s="33" t="e"/>
       <c r="W21" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X21" s="33" t="e"/>
       <c r="Y21" s="33" t="s">
@@ -1865,7 +2021,7 @@
       </c>
       <c r="AD21" s="33" t="e"/>
       <c r="AE21" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF21" s="33" t="e"/>
       <c r="AG21" s="33" t="s">
@@ -1879,7 +2035,7 @@
       </c>
       <c r="B22" s="27" t="e"/>
       <c r="C22" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="28" t="e"/>
       <c r="E22" s="27" t="s">
@@ -1903,21 +2059,21 @@
       </c>
       <c r="N22" s="27" t="e"/>
       <c r="O22" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" s="27" t="e"/>
       <c r="Q22" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" s="27" t="e"/>
       <c r="S22" s="31" t="e"/>
       <c r="T22" s="32" t="e"/>
       <c r="U22" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V22" s="33" t="e"/>
       <c r="W22" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X22" s="33" t="e"/>
       <c r="Y22" s="33" t="s">
@@ -1943,11 +2099,11 @@
     </row>
     <row r="23" ht="13" customHeight="true" outlineLevel="1">
       <c r="A23" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="27" t="e"/>
       <c r="C23" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="28" t="e"/>
       <c r="E23" s="27" t="s">
@@ -1967,27 +2123,25 @@
       </c>
       <c r="L23" s="27" t="e"/>
       <c r="M23" s="27" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N23" s="27" t="e"/>
       <c r="O23" s="27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="P23" s="27" t="e"/>
       <c r="Q23" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R23" s="27" t="e"/>
-      <c r="S23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" s="33" t="e"/>
+      <c r="S23" s="31" t="e"/>
+      <c r="T23" s="32" t="e"/>
       <c r="U23" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V23" s="33" t="e"/>
       <c r="W23" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X23" s="33" t="e"/>
       <c r="Y23" s="33" t="s">
@@ -2013,11 +2167,11 @@
     </row>
     <row r="24" ht="13" customHeight="true" outlineLevel="1">
       <c r="A24" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="27" t="e"/>
       <c r="C24" s="28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" s="28" t="e"/>
       <c r="E24" s="27" t="s">
@@ -2037,33 +2191,35 @@
       </c>
       <c r="L24" s="27" t="e"/>
       <c r="M24" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N24" s="27" t="e"/>
       <c r="O24" s="27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P24" s="27" t="e"/>
       <c r="Q24" s="27" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R24" s="27" t="e"/>
-      <c r="S24" s="31" t="e"/>
-      <c r="T24" s="32" t="e"/>
+      <c r="S24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="33" t="e"/>
       <c r="U24" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V24" s="33" t="e"/>
       <c r="W24" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X24" s="33" t="e"/>
       <c r="Y24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z24" s="33" t="e"/>
       <c r="AA24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB24" s="33" t="e"/>
       <c r="AC24" s="33" t="s">
@@ -2071,7 +2227,7 @@
       </c>
       <c r="AD24" s="33" t="e"/>
       <c r="AE24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF24" s="33" t="e"/>
       <c r="AG24" s="33" t="s">
@@ -2081,11 +2237,11 @@
     </row>
     <row r="25" ht="13" customHeight="true" outlineLevel="1">
       <c r="A25" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="27" t="e"/>
       <c r="C25" s="28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="28" t="e"/>
       <c r="E25" s="27" t="s">
@@ -2105,25 +2261,25 @@
       </c>
       <c r="L25" s="27" t="e"/>
       <c r="M25" s="27" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N25" s="27" t="e"/>
       <c r="O25" s="27" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P25" s="27" t="e"/>
       <c r="Q25" s="27" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="R25" s="27" t="e"/>
       <c r="S25" s="31" t="e"/>
       <c r="T25" s="32" t="e"/>
       <c r="U25" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V25" s="33" t="e"/>
       <c r="W25" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X25" s="33" t="e"/>
       <c r="Y25" s="33" t="s">
@@ -2139,7 +2295,7 @@
       </c>
       <c r="AD25" s="33" t="e"/>
       <c r="AE25" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF25" s="33" t="e"/>
       <c r="AG25" s="33" t="s">
@@ -2149,11 +2305,11 @@
     </row>
     <row r="26" ht="13" customHeight="true" outlineLevel="1">
       <c r="A26" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B26" s="27" t="e"/>
       <c r="C26" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="28" t="e"/>
       <c r="E26" s="27" t="s">
@@ -2173,23 +2329,21 @@
       </c>
       <c r="L26" s="27" t="e"/>
       <c r="M26" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N26" s="27" t="e"/>
       <c r="O26" s="27" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P26" s="27" t="e"/>
       <c r="Q26" s="27" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="R26" s="27" t="e"/>
-      <c r="S26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="T26" s="33" t="e"/>
+      <c r="S26" s="31" t="e"/>
+      <c r="T26" s="32" t="e"/>
       <c r="U26" s="33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V26" s="33" t="e"/>
       <c r="W26" s="33" t="s">
@@ -2197,11 +2351,11 @@
       </c>
       <c r="X26" s="33" t="e"/>
       <c r="Y26" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z26" s="33" t="e"/>
       <c r="AA26" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB26" s="33" t="e"/>
       <c r="AC26" s="33" t="s">
@@ -2209,7 +2363,7 @@
       </c>
       <c r="AD26" s="33" t="e"/>
       <c r="AE26" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF26" s="33" t="e"/>
       <c r="AG26" s="33" t="s">
@@ -2219,11 +2373,11 @@
     </row>
     <row r="27" ht="13" customHeight="true" outlineLevel="1">
       <c r="A27" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="27" t="e"/>
       <c r="C27" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="28" t="e"/>
       <c r="E27" s="27" t="s">
@@ -2243,23 +2397,23 @@
       </c>
       <c r="L27" s="27" t="e"/>
       <c r="M27" s="27" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N27" s="27" t="e"/>
       <c r="O27" s="27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P27" s="27" t="e"/>
       <c r="Q27" s="27" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="R27" s="27" t="e"/>
       <c r="S27" s="33" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="T27" s="33" t="e"/>
       <c r="U27" s="33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V27" s="33" t="e"/>
       <c r="W27" s="33" t="s">
@@ -2279,7 +2433,7 @@
       </c>
       <c r="AD27" s="33" t="e"/>
       <c r="AE27" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF27" s="33" t="e"/>
       <c r="AG27" s="33" t="s">
@@ -2289,11 +2443,11 @@
     </row>
     <row r="28" ht="13" customHeight="true" outlineLevel="1">
       <c r="A28" s="27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B28" s="27" t="e"/>
       <c r="C28" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D28" s="28" t="e"/>
       <c r="E28" s="27" t="s">
@@ -2313,23 +2467,23 @@
       </c>
       <c r="L28" s="27" t="e"/>
       <c r="M28" s="27" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="N28" s="27" t="e"/>
       <c r="O28" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P28" s="27" t="e"/>
       <c r="Q28" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" s="27" t="e"/>
       <c r="S28" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T28" s="33" t="e"/>
       <c r="U28" s="33" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="V28" s="33" t="e"/>
       <c r="W28" s="33" t="s">
@@ -2359,11 +2513,11 @@
     </row>
     <row r="29" ht="13" customHeight="true" outlineLevel="1">
       <c r="A29" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B29" s="27" t="e"/>
       <c r="C29" s="28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" s="28" t="e"/>
       <c r="E29" s="27" t="s">
@@ -2383,21 +2537,23 @@
       </c>
       <c r="L29" s="27" t="e"/>
       <c r="M29" s="27" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="N29" s="27" t="e"/>
       <c r="O29" s="27" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P29" s="27" t="e"/>
       <c r="Q29" s="27" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R29" s="27" t="e"/>
-      <c r="S29" s="31" t="e"/>
-      <c r="T29" s="32" t="e"/>
+      <c r="S29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29" s="33" t="e"/>
       <c r="U29" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V29" s="33" t="e"/>
       <c r="W29" s="33" t="s">
@@ -2427,11 +2583,11 @@
     </row>
     <row r="30" ht="13" customHeight="true" outlineLevel="1">
       <c r="A30" s="27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B30" s="27" t="e"/>
       <c r="C30" s="28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D30" s="28" t="e"/>
       <c r="E30" s="27" t="s">
@@ -2451,21 +2607,21 @@
       </c>
       <c r="L30" s="27" t="e"/>
       <c r="M30" s="27" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N30" s="27" t="e"/>
       <c r="O30" s="27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P30" s="27" t="e"/>
       <c r="Q30" s="27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R30" s="27" t="e"/>
       <c r="S30" s="31" t="e"/>
       <c r="T30" s="32" t="e"/>
       <c r="U30" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V30" s="33" t="e"/>
       <c r="W30" s="33" t="s">
@@ -2495,11 +2651,11 @@
     </row>
     <row r="31" ht="13" customHeight="true" outlineLevel="1">
       <c r="A31" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" s="27" t="e"/>
       <c r="C31" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" s="28" t="e"/>
       <c r="E31" s="27" t="s">
@@ -2519,23 +2675,21 @@
       </c>
       <c r="L31" s="27" t="e"/>
       <c r="M31" s="27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N31" s="27" t="e"/>
       <c r="O31" s="27" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="P31" s="27" t="e"/>
       <c r="Q31" s="27" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="R31" s="27" t="e"/>
-      <c r="S31" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="T31" s="33" t="e"/>
+      <c r="S31" s="31" t="e"/>
+      <c r="T31" s="32" t="e"/>
       <c r="U31" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V31" s="33" t="e"/>
       <c r="W31" s="33" t="s">
@@ -2543,11 +2697,11 @@
       </c>
       <c r="X31" s="33" t="e"/>
       <c r="Y31" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z31" s="33" t="e"/>
       <c r="AA31" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB31" s="33" t="e"/>
       <c r="AC31" s="33" t="s">
@@ -2555,7 +2709,7 @@
       </c>
       <c r="AD31" s="33" t="e"/>
       <c r="AE31" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF31" s="33" t="e"/>
       <c r="AG31" s="33" t="s">
@@ -2565,11 +2719,11 @@
     </row>
     <row r="32" ht="13" customHeight="true" outlineLevel="1">
       <c r="A32" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B32" s="27" t="e"/>
       <c r="C32" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D32" s="28" t="e"/>
       <c r="E32" s="27" t="s">
@@ -2589,21 +2743,23 @@
       </c>
       <c r="L32" s="27" t="e"/>
       <c r="M32" s="27" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="N32" s="27" t="e"/>
       <c r="O32" s="27" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="P32" s="27" t="e"/>
       <c r="Q32" s="27" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="R32" s="27" t="e"/>
-      <c r="S32" s="31" t="e"/>
-      <c r="T32" s="32" t="e"/>
+      <c r="S32" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="33" t="e"/>
       <c r="U32" s="33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V32" s="33" t="e"/>
       <c r="W32" s="33" t="s">
@@ -2615,7 +2771,7 @@
       </c>
       <c r="Z32" s="33" t="e"/>
       <c r="AA32" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB32" s="33" t="e"/>
       <c r="AC32" s="33" t="s">
@@ -2623,7 +2779,7 @@
       </c>
       <c r="AD32" s="33" t="e"/>
       <c r="AE32" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF32" s="33" t="e"/>
       <c r="AG32" s="33" t="s">
@@ -2633,11 +2789,11 @@
     </row>
     <row r="33" ht="13" customHeight="true" outlineLevel="1">
       <c r="A33" s="27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B33" s="27" t="e"/>
       <c r="C33" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D33" s="28" t="e"/>
       <c r="E33" s="27" t="s">
@@ -2657,23 +2813,21 @@
       </c>
       <c r="L33" s="27" t="e"/>
       <c r="M33" s="27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N33" s="27" t="e"/>
       <c r="O33" s="27" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="P33" s="27" t="e"/>
       <c r="Q33" s="27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R33" s="27" t="e"/>
-      <c r="S33" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="T33" s="33" t="e"/>
+      <c r="S33" s="31" t="e"/>
+      <c r="T33" s="32" t="e"/>
       <c r="U33" s="33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V33" s="33" t="e"/>
       <c r="W33" s="33" t="s">
@@ -2693,7 +2847,7 @@
       </c>
       <c r="AD33" s="33" t="e"/>
       <c r="AE33" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF33" s="33" t="e"/>
       <c r="AG33" s="33" t="s">
@@ -2703,11 +2857,11 @@
     </row>
     <row r="34" ht="13" customHeight="true" outlineLevel="1">
       <c r="A34" s="27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B34" s="27" t="e"/>
       <c r="C34" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="28" t="e"/>
       <c r="E34" s="27" t="s">
@@ -2727,21 +2881,23 @@
       </c>
       <c r="L34" s="27" t="e"/>
       <c r="M34" s="27" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N34" s="27" t="e"/>
       <c r="O34" s="27" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="P34" s="27" t="e"/>
       <c r="Q34" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="R34" s="27" t="e"/>
+      <c r="S34" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="R34" s="27" t="e"/>
-      <c r="S34" s="31" t="e"/>
-      <c r="T34" s="32" t="e"/>
+      <c r="T34" s="33" t="e"/>
       <c r="U34" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V34" s="33" t="e"/>
       <c r="W34" s="33" t="s">
@@ -2771,11 +2927,11 @@
     </row>
     <row r="35" ht="13" customHeight="true" outlineLevel="1">
       <c r="A35" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="27" t="e"/>
       <c r="C35" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="28" t="e"/>
       <c r="E35" s="27" t="s">
@@ -2795,21 +2951,21 @@
       </c>
       <c r="L35" s="27" t="e"/>
       <c r="M35" s="27" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="N35" s="27" t="e"/>
       <c r="O35" s="27" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="P35" s="27" t="e"/>
       <c r="Q35" s="27" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="R35" s="27" t="e"/>
       <c r="S35" s="31" t="e"/>
       <c r="T35" s="32" t="e"/>
       <c r="U35" s="33" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="V35" s="33" t="e"/>
       <c r="W35" s="33" t="s">
@@ -2829,7 +2985,7 @@
       </c>
       <c r="AD35" s="33" t="e"/>
       <c r="AE35" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF35" s="33" t="e"/>
       <c r="AG35" s="33" t="s">
@@ -2839,11 +2995,11 @@
     </row>
     <row r="36" ht="13" customHeight="true" outlineLevel="1">
       <c r="A36" s="27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="27" t="e"/>
       <c r="C36" s="28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="28" t="e"/>
       <c r="E36" s="27" t="s">
@@ -2863,23 +3019,21 @@
       </c>
       <c r="L36" s="27" t="e"/>
       <c r="M36" s="27" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N36" s="27" t="e"/>
       <c r="O36" s="27" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="P36" s="27" t="e"/>
       <c r="Q36" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R36" s="27" t="e"/>
-      <c r="S36" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T36" s="33" t="e"/>
+      <c r="S36" s="31" t="e"/>
+      <c r="T36" s="32" t="e"/>
       <c r="U36" s="33" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="V36" s="33" t="e"/>
       <c r="W36" s="33" t="s">
@@ -2899,7 +3053,7 @@
       </c>
       <c r="AD36" s="33" t="e"/>
       <c r="AE36" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF36" s="33" t="e"/>
       <c r="AG36" s="33" t="s">
@@ -2909,11 +3063,11 @@
     </row>
     <row r="37" ht="13" customHeight="true" outlineLevel="1">
       <c r="A37" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B37" s="27" t="e"/>
       <c r="C37" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="28" t="e"/>
       <c r="E37" s="27" t="s">
@@ -2933,21 +3087,23 @@
       </c>
       <c r="L37" s="27" t="e"/>
       <c r="M37" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N37" s="27" t="e"/>
       <c r="O37" s="27" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="P37" s="27" t="e"/>
       <c r="Q37" s="27" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="R37" s="27" t="e"/>
-      <c r="S37" s="31" t="e"/>
-      <c r="T37" s="32" t="e"/>
+      <c r="S37" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="33" t="e"/>
       <c r="U37" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V37" s="33" t="e"/>
       <c r="W37" s="33" t="s">
@@ -2955,11 +3111,11 @@
       </c>
       <c r="X37" s="33" t="e"/>
       <c r="Y37" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z37" s="33" t="e"/>
       <c r="AA37" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB37" s="33" t="e"/>
       <c r="AC37" s="33" t="s">
@@ -2977,11 +3133,11 @@
     </row>
     <row r="38" ht="13" customHeight="true" outlineLevel="1">
       <c r="A38" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" s="27" t="e"/>
       <c r="C38" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="28" t="e"/>
       <c r="E38" s="27" t="s">
@@ -3001,21 +3157,21 @@
       </c>
       <c r="L38" s="27" t="e"/>
       <c r="M38" s="27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N38" s="27" t="e"/>
       <c r="O38" s="27" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="P38" s="27" t="e"/>
       <c r="Q38" s="27" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="R38" s="27" t="e"/>
       <c r="S38" s="31" t="e"/>
       <c r="T38" s="32" t="e"/>
       <c r="U38" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V38" s="33" t="e"/>
       <c r="W38" s="33" t="s">
@@ -3023,11 +3179,11 @@
       </c>
       <c r="X38" s="33" t="e"/>
       <c r="Y38" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z38" s="33" t="e"/>
       <c r="AA38" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB38" s="33" t="e"/>
       <c r="AC38" s="33" t="s">
@@ -3035,7 +3191,7 @@
       </c>
       <c r="AD38" s="33" t="e"/>
       <c r="AE38" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF38" s="33" t="e"/>
       <c r="AG38" s="33" t="s">
@@ -3045,11 +3201,11 @@
     </row>
     <row r="39" ht="13" customHeight="true" outlineLevel="1">
       <c r="A39" s="27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B39" s="27" t="e"/>
       <c r="C39" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="28" t="e"/>
       <c r="E39" s="27" t="s">
@@ -3069,21 +3225,21 @@
       </c>
       <c r="L39" s="27" t="e"/>
       <c r="M39" s="27" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="N39" s="27" t="e"/>
       <c r="O39" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P39" s="27" t="e"/>
       <c r="Q39" s="27" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="R39" s="27" t="e"/>
       <c r="S39" s="31" t="e"/>
       <c r="T39" s="32" t="e"/>
       <c r="U39" s="33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V39" s="33" t="e"/>
       <c r="W39" s="33" t="s">
@@ -3103,7 +3259,7 @@
       </c>
       <c r="AD39" s="33" t="e"/>
       <c r="AE39" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF39" s="33" t="e"/>
       <c r="AG39" s="33" t="s">
@@ -3113,11 +3269,11 @@
     </row>
     <row r="40" ht="13" customHeight="true" outlineLevel="1">
       <c r="A40" s="27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B40" s="27" t="e"/>
       <c r="C40" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="28" t="e"/>
       <c r="E40" s="27" t="s">
@@ -3137,27 +3293,25 @@
       </c>
       <c r="L40" s="27" t="e"/>
       <c r="M40" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N40" s="27" t="e"/>
       <c r="O40" s="27" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P40" s="27" t="e"/>
       <c r="Q40" s="27" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="R40" s="27" t="e"/>
-      <c r="S40" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="T40" s="33" t="e"/>
+      <c r="S40" s="31" t="e"/>
+      <c r="T40" s="32" t="e"/>
       <c r="U40" s="33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="V40" s="33" t="e"/>
       <c r="W40" s="33" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="X40" s="33" t="e"/>
       <c r="Y40" s="33" t="s">
@@ -3183,11 +3337,11 @@
     </row>
     <row r="41" ht="13" customHeight="true" outlineLevel="1">
       <c r="A41" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B41" s="27" t="e"/>
       <c r="C41" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D41" s="28" t="e"/>
       <c r="E41" s="27" t="s">
@@ -3207,33 +3361,35 @@
       </c>
       <c r="L41" s="27" t="e"/>
       <c r="M41" s="27" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="N41" s="27" t="e"/>
       <c r="O41" s="27" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="P41" s="27" t="e"/>
       <c r="Q41" s="27" t="s">
         <v>50</v>
       </c>
       <c r="R41" s="27" t="e"/>
-      <c r="S41" s="31" t="e"/>
-      <c r="T41" s="32" t="e"/>
+      <c r="S41" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="T41" s="33" t="e"/>
       <c r="U41" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V41" s="33" t="e"/>
       <c r="W41" s="33" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="X41" s="33" t="e"/>
       <c r="Y41" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z41" s="33" t="e"/>
       <c r="AA41" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB41" s="33" t="e"/>
       <c r="AC41" s="33" t="s">
@@ -3241,7 +3397,7 @@
       </c>
       <c r="AD41" s="33" t="e"/>
       <c r="AE41" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF41" s="33" t="e"/>
       <c r="AG41" s="33" t="s">
@@ -3251,11 +3407,11 @@
     </row>
     <row r="42" ht="13" customHeight="true" outlineLevel="1">
       <c r="A42" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="27" t="e"/>
       <c r="C42" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="28" t="e"/>
       <c r="E42" s="27" t="s">
@@ -3275,27 +3431,25 @@
       </c>
       <c r="L42" s="27" t="e"/>
       <c r="M42" s="27" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N42" s="27" t="e"/>
       <c r="O42" s="27" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="P42" s="27" t="e"/>
       <c r="Q42" s="27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R42" s="27" t="e"/>
-      <c r="S42" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T42" s="33" t="e"/>
+      <c r="S42" s="31" t="e"/>
+      <c r="T42" s="32" t="e"/>
       <c r="U42" s="33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V42" s="33" t="e"/>
       <c r="W42" s="33" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="X42" s="33" t="e"/>
       <c r="Y42" s="33" t="s">
@@ -3321,11 +3475,11 @@
     </row>
     <row r="43" ht="13" customHeight="true" outlineLevel="1">
       <c r="A43" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B43" s="27" t="e"/>
       <c r="C43" s="28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="28" t="e"/>
       <c r="E43" s="27" t="s">
@@ -3345,35 +3499,35 @@
       </c>
       <c r="L43" s="27" t="e"/>
       <c r="M43" s="27" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="N43" s="27" t="e"/>
       <c r="O43" s="27" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="P43" s="27" t="e"/>
       <c r="Q43" s="27" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="R43" s="27" t="e"/>
       <c r="S43" s="33" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="T43" s="33" t="e"/>
       <c r="U43" s="33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="V43" s="33" t="e"/>
       <c r="W43" s="33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="X43" s="33" t="e"/>
       <c r="Y43" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z43" s="33" t="e"/>
       <c r="AA43" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB43" s="33" t="e"/>
       <c r="AC43" s="33" t="s">
@@ -3391,11 +3545,11 @@
     </row>
     <row r="44" ht="13" customHeight="true" outlineLevel="1">
       <c r="A44" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B44" s="27" t="e"/>
       <c r="C44" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="28" t="e"/>
       <c r="E44" s="27" t="s">
@@ -3415,27 +3569,27 @@
       </c>
       <c r="L44" s="27" t="e"/>
       <c r="M44" s="27" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="N44" s="27" t="e"/>
       <c r="O44" s="27" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="P44" s="27" t="e"/>
       <c r="Q44" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R44" s="27" t="e"/>
       <c r="S44" s="33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="T44" s="33" t="e"/>
       <c r="U44" s="33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="V44" s="33" t="e"/>
       <c r="W44" s="33" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="X44" s="33" t="e"/>
       <c r="Y44" s="33" t="s">
@@ -3451,7 +3605,7 @@
       </c>
       <c r="AD44" s="33" t="e"/>
       <c r="AE44" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF44" s="33" t="e"/>
       <c r="AG44" s="33" t="s">
@@ -3485,21 +3639,23 @@
       </c>
       <c r="L45" s="27" t="e"/>
       <c r="M45" s="27" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="N45" s="27" t="e"/>
       <c r="O45" s="27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P45" s="27" t="e"/>
       <c r="Q45" s="27" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="R45" s="27" t="e"/>
-      <c r="S45" s="31" t="e"/>
-      <c r="T45" s="32" t="e"/>
+      <c r="S45" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="33" t="e"/>
       <c r="U45" s="33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V45" s="33" t="e"/>
       <c r="W45" s="33" t="s">
@@ -3529,11 +3685,11 @@
     </row>
     <row r="46" ht="13" customHeight="true" outlineLevel="1">
       <c r="A46" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B46" s="27" t="e"/>
       <c r="C46" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="28" t="e"/>
       <c r="E46" s="27" t="s">
@@ -3553,21 +3709,21 @@
       </c>
       <c r="L46" s="27" t="e"/>
       <c r="M46" s="27" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="N46" s="27" t="e"/>
       <c r="O46" s="27" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="P46" s="27" t="e"/>
       <c r="Q46" s="27" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="R46" s="27" t="e"/>
       <c r="S46" s="31" t="e"/>
       <c r="T46" s="32" t="e"/>
       <c r="U46" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V46" s="33" t="e"/>
       <c r="W46" s="33" t="s">
@@ -3597,11 +3753,11 @@
     </row>
     <row r="47" ht="13" customHeight="true" outlineLevel="1">
       <c r="A47" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B47" s="27" t="e"/>
       <c r="C47" s="28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="28" t="e"/>
       <c r="E47" s="27" t="s">
@@ -3621,35 +3777,33 @@
       </c>
       <c r="L47" s="27" t="e"/>
       <c r="M47" s="27" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="N47" s="27" t="e"/>
       <c r="O47" s="27" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="P47" s="27" t="e"/>
       <c r="Q47" s="27" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R47" s="27" t="e"/>
-      <c r="S47" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="T47" s="33" t="e"/>
+      <c r="S47" s="31" t="e"/>
+      <c r="T47" s="32" t="e"/>
       <c r="U47" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V47" s="33" t="e"/>
       <c r="W47" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X47" s="33" t="e"/>
       <c r="Y47" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z47" s="33" t="e"/>
       <c r="AA47" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB47" s="33" t="e"/>
       <c r="AC47" s="33" t="s">
@@ -3657,7 +3811,7 @@
       </c>
       <c r="AD47" s="33" t="e"/>
       <c r="AE47" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF47" s="33" t="e"/>
       <c r="AG47" s="33" t="s">
@@ -3691,27 +3845,25 @@
       </c>
       <c r="L48" s="27" t="e"/>
       <c r="M48" s="27" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="N48" s="27" t="e"/>
       <c r="O48" s="27" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="P48" s="27" t="e"/>
       <c r="Q48" s="27" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="R48" s="27" t="e"/>
-      <c r="S48" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T48" s="33" t="e"/>
+      <c r="S48" s="31" t="e"/>
+      <c r="T48" s="32" t="e"/>
       <c r="U48" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V48" s="33" t="e"/>
       <c r="W48" s="33" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="X48" s="33" t="e"/>
       <c r="Y48" s="33" t="s">
@@ -3761,15 +3913,15 @@
       </c>
       <c r="L49" s="27" t="e"/>
       <c r="M49" s="27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N49" s="27" t="e"/>
       <c r="O49" s="27" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="P49" s="27" t="e"/>
       <c r="Q49" s="27" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="R49" s="27" t="e"/>
       <c r="S49" s="31" t="e"/>
@@ -3779,15 +3931,15 @@
       </c>
       <c r="V49" s="33" t="e"/>
       <c r="W49" s="33" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="X49" s="33" t="e"/>
       <c r="Y49" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z49" s="33" t="e"/>
       <c r="AA49" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB49" s="33" t="e"/>
       <c r="AC49" s="33" t="s">
@@ -3795,7 +3947,7 @@
       </c>
       <c r="AD49" s="33" t="e"/>
       <c r="AE49" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF49" s="33" t="e"/>
       <c r="AG49" s="33" t="s">
@@ -3829,25 +3981,27 @@
       </c>
       <c r="L50" s="27" t="e"/>
       <c r="M50" s="27" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="N50" s="27" t="e"/>
       <c r="O50" s="27" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="P50" s="27" t="e"/>
       <c r="Q50" s="27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R50" s="27" t="e"/>
-      <c r="S50" s="31" t="e"/>
-      <c r="T50" s="32" t="e"/>
+      <c r="S50" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T50" s="33" t="e"/>
       <c r="U50" s="33" t="s">
         <v>147</v>
       </c>
       <c r="V50" s="33" t="e"/>
       <c r="W50" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X50" s="33" t="e"/>
       <c r="Y50" s="33" t="s">
@@ -3863,7 +4017,7 @@
       </c>
       <c r="AD50" s="33" t="e"/>
       <c r="AE50" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF50" s="33" t="e"/>
       <c r="AG50" s="33" t="s">
@@ -3897,21 +4051,23 @@
       </c>
       <c r="L51" s="27" t="e"/>
       <c r="M51" s="27" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="N51" s="27" t="e"/>
       <c r="O51" s="27" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="P51" s="27" t="e"/>
       <c r="Q51" s="27" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="R51" s="27" t="e"/>
-      <c r="S51" s="31" t="e"/>
-      <c r="T51" s="32" t="e"/>
+      <c r="S51" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="33" t="e"/>
       <c r="U51" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="V51" s="33" t="e"/>
       <c r="W51" s="33" t="s">
@@ -3941,11 +4097,11 @@
     </row>
     <row r="52" ht="13" customHeight="true" outlineLevel="1">
       <c r="A52" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="27" t="e"/>
       <c r="C52" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="28" t="e"/>
       <c r="E52" s="27" t="s">
@@ -3965,25 +4121,25 @@
       </c>
       <c r="L52" s="27" t="e"/>
       <c r="M52" s="27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N52" s="27" t="e"/>
       <c r="O52" s="27" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="P52" s="27" t="e"/>
       <c r="Q52" s="27" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="R52" s="27" t="e"/>
       <c r="S52" s="31" t="e"/>
       <c r="T52" s="32" t="e"/>
       <c r="U52" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V52" s="33" t="e"/>
       <c r="W52" s="33" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="X52" s="33" t="e"/>
       <c r="Y52" s="33" t="s">
@@ -3999,7 +4155,7 @@
       </c>
       <c r="AD52" s="33" t="e"/>
       <c r="AE52" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF52" s="33" t="e"/>
       <c r="AG52" s="33" t="s">
@@ -4009,11 +4165,11 @@
     </row>
     <row r="53" ht="13" customHeight="true" outlineLevel="1">
       <c r="A53" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" s="27" t="e"/>
       <c r="C53" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="28" t="e"/>
       <c r="E53" s="27" t="s">
@@ -4033,33 +4189,33 @@
       </c>
       <c r="L53" s="27" t="e"/>
       <c r="M53" s="27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N53" s="27" t="e"/>
       <c r="O53" s="27" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="P53" s="27" t="e"/>
       <c r="Q53" s="27" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="R53" s="27" t="e"/>
       <c r="S53" s="31" t="e"/>
       <c r="T53" s="32" t="e"/>
       <c r="U53" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V53" s="33" t="e"/>
       <c r="W53" s="33" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="X53" s="33" t="e"/>
       <c r="Y53" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z53" s="33" t="e"/>
       <c r="AA53" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB53" s="33" t="e"/>
       <c r="AC53" s="33" t="s">
@@ -4105,17 +4261,17 @@
       </c>
       <c r="N54" s="27" t="e"/>
       <c r="O54" s="27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P54" s="27" t="e"/>
       <c r="Q54" s="27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R54" s="27" t="e"/>
       <c r="S54" s="31" t="e"/>
       <c r="T54" s="32" t="e"/>
       <c r="U54" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="V54" s="33" t="e"/>
       <c r="W54" s="33" t="s">
@@ -4135,7 +4291,7 @@
       </c>
       <c r="AD54" s="33" t="e"/>
       <c r="AE54" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF54" s="33" t="e"/>
       <c r="AG54" s="33" t="s">
@@ -4145,11 +4301,11 @@
     </row>
     <row r="55" ht="13" customHeight="true" outlineLevel="1">
       <c r="A55" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="27" t="e"/>
       <c r="C55" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="28" t="e"/>
       <c r="E55" s="27" t="s">
@@ -4169,23 +4325,21 @@
       </c>
       <c r="L55" s="27" t="e"/>
       <c r="M55" s="27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N55" s="27" t="e"/>
       <c r="O55" s="27" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="P55" s="27" t="e"/>
       <c r="Q55" s="27" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="R55" s="27" t="e"/>
-      <c r="S55" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T55" s="33" t="e"/>
+      <c r="S55" s="31" t="e"/>
+      <c r="T55" s="32" t="e"/>
       <c r="U55" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V55" s="33" t="e"/>
       <c r="W55" s="33" t="s">
@@ -4193,11 +4347,11 @@
       </c>
       <c r="X55" s="33" t="e"/>
       <c r="Y55" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z55" s="33" t="e"/>
       <c r="AA55" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB55" s="33" t="e"/>
       <c r="AC55" s="33" t="s">
@@ -4215,11 +4369,11 @@
     </row>
     <row r="56" ht="13" customHeight="true" outlineLevel="1">
       <c r="A56" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="27" t="e"/>
       <c r="C56" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="28" t="e"/>
       <c r="E56" s="27" t="s">
@@ -4239,25 +4393,25 @@
       </c>
       <c r="L56" s="27" t="e"/>
       <c r="M56" s="27" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="N56" s="27" t="e"/>
       <c r="O56" s="27" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="P56" s="27" t="e"/>
       <c r="Q56" s="27" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="R56" s="27" t="e"/>
       <c r="S56" s="31" t="e"/>
       <c r="T56" s="32" t="e"/>
       <c r="U56" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V56" s="33" t="e"/>
       <c r="W56" s="33" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="X56" s="33" t="e"/>
       <c r="Y56" s="33" t="s">
@@ -4283,11 +4437,11 @@
     </row>
     <row r="57" ht="13" customHeight="true" outlineLevel="1">
       <c r="A57" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="27" t="e"/>
       <c r="C57" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="28" t="e"/>
       <c r="E57" s="27" t="s">
@@ -4307,23 +4461,21 @@
       </c>
       <c r="L57" s="27" t="e"/>
       <c r="M57" s="27" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="N57" s="27" t="e"/>
       <c r="O57" s="27" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="P57" s="27" t="e"/>
       <c r="Q57" s="27" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="R57" s="27" t="e"/>
-      <c r="S57" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T57" s="33" t="e"/>
+      <c r="S57" s="31" t="e"/>
+      <c r="T57" s="32" t="e"/>
       <c r="U57" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="V57" s="33" t="e"/>
       <c r="W57" s="33" t="s">
@@ -4353,11 +4505,11 @@
     </row>
     <row r="58" ht="13" customHeight="true" outlineLevel="1">
       <c r="A58" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B58" s="27" t="e"/>
       <c r="C58" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="28" t="e"/>
       <c r="E58" s="27" t="s">
@@ -4377,33 +4529,33 @@
       </c>
       <c r="L58" s="27" t="e"/>
       <c r="M58" s="27" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="N58" s="27" t="e"/>
       <c r="O58" s="27" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="P58" s="27" t="e"/>
       <c r="Q58" s="27" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="R58" s="27" t="e"/>
       <c r="S58" s="31" t="e"/>
       <c r="T58" s="32" t="e"/>
       <c r="U58" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V58" s="33" t="e"/>
       <c r="W58" s="33" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="X58" s="33" t="e"/>
       <c r="Y58" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z58" s="33" t="e"/>
       <c r="AA58" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB58" s="33" t="e"/>
       <c r="AC58" s="33" t="s">
@@ -4411,7 +4563,7 @@
       </c>
       <c r="AD58" s="33" t="e"/>
       <c r="AE58" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF58" s="33" t="e"/>
       <c r="AG58" s="33" t="s">
@@ -4421,11 +4573,11 @@
     </row>
     <row r="59" ht="13" customHeight="true" outlineLevel="1">
       <c r="A59" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B59" s="27" t="e"/>
       <c r="C59" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="28" t="e"/>
       <c r="E59" s="27" t="s">
@@ -4445,23 +4597,21 @@
       </c>
       <c r="L59" s="27" t="e"/>
       <c r="M59" s="27" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="N59" s="27" t="e"/>
       <c r="O59" s="27" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="P59" s="27" t="e"/>
       <c r="Q59" s="27" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="R59" s="27" t="e"/>
-      <c r="S59" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="T59" s="33" t="e"/>
+      <c r="S59" s="31" t="e"/>
+      <c r="T59" s="32" t="e"/>
       <c r="U59" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V59" s="33" t="e"/>
       <c r="W59" s="33" t="s">
@@ -4469,11 +4619,11 @@
       </c>
       <c r="X59" s="33" t="e"/>
       <c r="Y59" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z59" s="33" t="e"/>
       <c r="AA59" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB59" s="33" t="e"/>
       <c r="AC59" s="33" t="s">
@@ -4491,11 +4641,11 @@
     </row>
     <row r="60" ht="13" customHeight="true" outlineLevel="1">
       <c r="A60" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B60" s="27" t="e"/>
       <c r="C60" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="28" t="e"/>
       <c r="E60" s="27" t="s">
@@ -4515,21 +4665,23 @@
       </c>
       <c r="L60" s="27" t="e"/>
       <c r="M60" s="27" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N60" s="27" t="e"/>
       <c r="O60" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P60" s="27" t="e"/>
       <c r="Q60" s="27" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="R60" s="27" t="e"/>
-      <c r="S60" s="31" t="e"/>
-      <c r="T60" s="32" t="e"/>
+      <c r="S60" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="33" t="e"/>
       <c r="U60" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="V60" s="33" t="e"/>
       <c r="W60" s="33" t="s">
@@ -4549,7 +4701,7 @@
       </c>
       <c r="AD60" s="33" t="e"/>
       <c r="AE60" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF60" s="33" t="e"/>
       <c r="AG60" s="33" t="s">
@@ -4559,11 +4711,11 @@
     </row>
     <row r="61" ht="13" customHeight="true" outlineLevel="1">
       <c r="A61" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B61" s="27" t="e"/>
       <c r="C61" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="28" t="e"/>
       <c r="E61" s="27" t="s">
@@ -4583,15 +4735,15 @@
       </c>
       <c r="L61" s="27" t="e"/>
       <c r="M61" s="27" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="N61" s="27" t="e"/>
       <c r="O61" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P61" s="27" t="e"/>
       <c r="Q61" s="27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R61" s="27" t="e"/>
       <c r="S61" s="31" t="e"/>
@@ -4601,7 +4753,7 @@
       </c>
       <c r="V61" s="33" t="e"/>
       <c r="W61" s="33" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="X61" s="33" t="e"/>
       <c r="Y61" s="33" t="s">
@@ -4627,11 +4779,11 @@
     </row>
     <row r="62" ht="13" customHeight="true" outlineLevel="1">
       <c r="A62" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B62" s="27" t="e"/>
       <c r="C62" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="28" t="e"/>
       <c r="E62" s="27" t="s">
@@ -4651,25 +4803,27 @@
       </c>
       <c r="L62" s="27" t="e"/>
       <c r="M62" s="27" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="N62" s="27" t="e"/>
       <c r="O62" s="27" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="P62" s="27" t="e"/>
       <c r="Q62" s="27" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="R62" s="27" t="e"/>
-      <c r="S62" s="31" t="e"/>
-      <c r="T62" s="32" t="e"/>
+      <c r="S62" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T62" s="33" t="e"/>
       <c r="U62" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V62" s="33" t="e"/>
       <c r="W62" s="33" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="X62" s="33" t="e"/>
       <c r="Y62" s="33" t="s">
@@ -4695,11 +4849,11 @@
     </row>
     <row r="63" ht="13" customHeight="true" outlineLevel="1">
       <c r="A63" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B63" s="27" t="e"/>
       <c r="C63" s="28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="28" t="e"/>
       <c r="E63" s="27" t="s">
@@ -4719,23 +4873,21 @@
       </c>
       <c r="L63" s="27" t="e"/>
       <c r="M63" s="27" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="N63" s="27" t="e"/>
       <c r="O63" s="27" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="P63" s="27" t="e"/>
       <c r="Q63" s="27" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="R63" s="27" t="e"/>
-      <c r="S63" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="T63" s="33" t="e"/>
+      <c r="S63" s="31" t="e"/>
+      <c r="T63" s="32" t="e"/>
       <c r="U63" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V63" s="33" t="e"/>
       <c r="W63" s="33" t="s">
@@ -4747,7 +4899,7 @@
       </c>
       <c r="Z63" s="33" t="e"/>
       <c r="AA63" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB63" s="33" t="e"/>
       <c r="AC63" s="33" t="s">
@@ -4765,11 +4917,11 @@
     </row>
     <row r="64" ht="13" customHeight="true" outlineLevel="1">
       <c r="A64" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" s="27" t="e"/>
       <c r="C64" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="28" t="e"/>
       <c r="E64" s="27" t="s">
@@ -4789,15 +4941,15 @@
       </c>
       <c r="L64" s="27" t="e"/>
       <c r="M64" s="27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N64" s="27" t="e"/>
       <c r="O64" s="27" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="P64" s="27" t="e"/>
       <c r="Q64" s="27" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="R64" s="27" t="e"/>
       <c r="S64" s="31" t="e"/>
@@ -4807,7 +4959,7 @@
       </c>
       <c r="V64" s="33" t="e"/>
       <c r="W64" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X64" s="33" t="e"/>
       <c r="Y64" s="33" t="s">
@@ -4857,21 +5009,21 @@
       </c>
       <c r="L65" s="27" t="e"/>
       <c r="M65" s="27" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="N65" s="27" t="e"/>
       <c r="O65" s="27" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="P65" s="27" t="e"/>
       <c r="Q65" s="27" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="R65" s="27" t="e"/>
       <c r="S65" s="31" t="e"/>
       <c r="T65" s="32" t="e"/>
       <c r="U65" s="33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V65" s="33" t="e"/>
       <c r="W65" s="33" t="s">
@@ -4925,21 +5077,23 @@
       </c>
       <c r="L66" s="27" t="e"/>
       <c r="M66" s="27" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="N66" s="27" t="e"/>
       <c r="O66" s="27" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="P66" s="27" t="e"/>
       <c r="Q66" s="27" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="R66" s="27" t="e"/>
-      <c r="S66" s="31" t="e"/>
-      <c r="T66" s="32" t="e"/>
+      <c r="S66" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T66" s="33" t="e"/>
       <c r="U66" s="33" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="V66" s="33" t="e"/>
       <c r="W66" s="33" t="s">
@@ -4959,7 +5113,7 @@
       </c>
       <c r="AD66" s="33" t="e"/>
       <c r="AE66" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF66" s="33" t="e"/>
       <c r="AG66" s="33" t="s">
@@ -4969,11 +5123,11 @@
     </row>
     <row r="67" ht="13" customHeight="true" outlineLevel="1">
       <c r="A67" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B67" s="27" t="e"/>
       <c r="C67" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="28" t="e"/>
       <c r="E67" s="27" t="s">
@@ -4993,21 +5147,21 @@
       </c>
       <c r="L67" s="27" t="e"/>
       <c r="M67" s="27" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="N67" s="27" t="e"/>
       <c r="O67" s="27" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="P67" s="27" t="e"/>
       <c r="Q67" s="27" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="R67" s="27" t="e"/>
       <c r="S67" s="31" t="e"/>
       <c r="T67" s="32" t="e"/>
       <c r="U67" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="V67" s="33" t="e"/>
       <c r="W67" s="33" t="s">
@@ -5037,11 +5191,11 @@
     </row>
     <row r="68" ht="13" customHeight="true" outlineLevel="1">
       <c r="A68" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" s="27" t="e"/>
       <c r="C68" s="28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="28" t="e"/>
       <c r="E68" s="27" t="s">
@@ -5061,33 +5215,33 @@
       </c>
       <c r="L68" s="27" t="e"/>
       <c r="M68" s="27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N68" s="27" t="e"/>
       <c r="O68" s="27" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="P68" s="27" t="e"/>
       <c r="Q68" s="27" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="R68" s="27" t="e"/>
       <c r="S68" s="31" t="e"/>
       <c r="T68" s="32" t="e"/>
       <c r="U68" s="33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="V68" s="33" t="e"/>
       <c r="W68" s="33" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="X68" s="33" t="e"/>
       <c r="Y68" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z68" s="33" t="e"/>
       <c r="AA68" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB68" s="33" t="e"/>
       <c r="AC68" s="33" t="s">
@@ -5095,7 +5249,7 @@
       </c>
       <c r="AD68" s="33" t="e"/>
       <c r="AE68" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF68" s="33" t="e"/>
       <c r="AG68" s="33" t="s">
@@ -5105,11 +5259,11 @@
     </row>
     <row r="69" ht="13" customHeight="true" outlineLevel="1">
       <c r="A69" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B69" s="27" t="e"/>
       <c r="C69" s="28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D69" s="28" t="e"/>
       <c r="E69" s="27" t="s">
@@ -5129,21 +5283,23 @@
       </c>
       <c r="L69" s="27" t="e"/>
       <c r="M69" s="27" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="N69" s="27" t="e"/>
       <c r="O69" s="27" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="P69" s="27" t="e"/>
       <c r="Q69" s="27" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="R69" s="27" t="e"/>
-      <c r="S69" s="31" t="e"/>
-      <c r="T69" s="32" t="e"/>
+      <c r="S69" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T69" s="33" t="e"/>
       <c r="U69" s="33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="V69" s="33" t="e"/>
       <c r="W69" s="33" t="s">
@@ -5173,11 +5329,11 @@
     </row>
     <row r="70" ht="13" customHeight="true" outlineLevel="1">
       <c r="A70" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B70" s="27" t="e"/>
       <c r="C70" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D70" s="28" t="e"/>
       <c r="E70" s="27" t="s">
@@ -5197,33 +5353,33 @@
       </c>
       <c r="L70" s="27" t="e"/>
       <c r="M70" s="27" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="N70" s="27" t="e"/>
       <c r="O70" s="27" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="P70" s="27" t="e"/>
       <c r="Q70" s="27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R70" s="27" t="e"/>
       <c r="S70" s="31" t="e"/>
       <c r="T70" s="32" t="e"/>
       <c r="U70" s="33" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="V70" s="33" t="e"/>
       <c r="W70" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X70" s="33" t="e"/>
       <c r="Y70" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z70" s="33" t="e"/>
       <c r="AA70" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB70" s="33" t="e"/>
       <c r="AC70" s="33" t="s">
@@ -5241,11 +5397,11 @@
     </row>
     <row r="71" ht="13" customHeight="true" outlineLevel="1">
       <c r="A71" s="27" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B71" s="27" t="e"/>
       <c r="C71" s="28" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D71" s="28" t="e"/>
       <c r="E71" s="27" t="s">
@@ -5265,21 +5421,23 @@
       </c>
       <c r="L71" s="27" t="e"/>
       <c r="M71" s="27" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N71" s="27" t="e"/>
       <c r="O71" s="27" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="P71" s="27" t="e"/>
       <c r="Q71" s="27" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="R71" s="27" t="e"/>
-      <c r="S71" s="31" t="e"/>
-      <c r="T71" s="32" t="e"/>
+      <c r="S71" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T71" s="33" t="e"/>
       <c r="U71" s="33" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="V71" s="33" t="e"/>
       <c r="W71" s="33" t="s">
@@ -5299,7 +5457,7 @@
       </c>
       <c r="AD71" s="33" t="e"/>
       <c r="AE71" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF71" s="33" t="e"/>
       <c r="AG71" s="33" t="s">
@@ -5309,11 +5467,11 @@
     </row>
     <row r="72" ht="13" customHeight="true" outlineLevel="1">
       <c r="A72" s="27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B72" s="27" t="e"/>
       <c r="C72" s="28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D72" s="28" t="e"/>
       <c r="E72" s="27" t="s">
@@ -5333,25 +5491,25 @@
       </c>
       <c r="L72" s="27" t="e"/>
       <c r="M72" s="27" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N72" s="27" t="e"/>
       <c r="O72" s="27" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="P72" s="27" t="e"/>
       <c r="Q72" s="27" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="R72" s="27" t="e"/>
       <c r="S72" s="31" t="e"/>
       <c r="T72" s="32" t="e"/>
       <c r="U72" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V72" s="33" t="e"/>
       <c r="W72" s="33" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="X72" s="33" t="e"/>
       <c r="Y72" s="33" t="s">
@@ -5377,11 +5535,11 @@
     </row>
     <row r="73" ht="13" customHeight="true" outlineLevel="1">
       <c r="A73" s="27" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B73" s="27" t="e"/>
       <c r="C73" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D73" s="28" t="e"/>
       <c r="E73" s="27" t="s">
@@ -5401,23 +5559,23 @@
       </c>
       <c r="L73" s="27" t="e"/>
       <c r="M73" s="27" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="N73" s="27" t="e"/>
       <c r="O73" s="27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="P73" s="27" t="e"/>
       <c r="Q73" s="27" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="R73" s="27" t="e"/>
       <c r="S73" s="33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="T73" s="33" t="e"/>
       <c r="U73" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V73" s="33" t="e"/>
       <c r="W73" s="33" t="s">
@@ -5425,11 +5583,11 @@
       </c>
       <c r="X73" s="33" t="e"/>
       <c r="Y73" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z73" s="33" t="e"/>
       <c r="AA73" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB73" s="33" t="e"/>
       <c r="AC73" s="33" t="s">
@@ -5437,7 +5595,7 @@
       </c>
       <c r="AD73" s="33" t="e"/>
       <c r="AE73" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF73" s="33" t="e"/>
       <c r="AG73" s="33" t="s">
@@ -5447,11 +5605,11 @@
     </row>
     <row r="74" ht="13" customHeight="true" outlineLevel="1">
       <c r="A74" s="27" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B74" s="27" t="e"/>
       <c r="C74" s="28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D74" s="28" t="e"/>
       <c r="E74" s="27" t="s">
@@ -5471,21 +5629,21 @@
       </c>
       <c r="L74" s="27" t="e"/>
       <c r="M74" s="27" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="N74" s="27" t="e"/>
       <c r="O74" s="27" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="P74" s="27" t="e"/>
       <c r="Q74" s="27" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="R74" s="27" t="e"/>
       <c r="S74" s="31" t="e"/>
       <c r="T74" s="32" t="e"/>
       <c r="U74" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="V74" s="33" t="e"/>
       <c r="W74" s="33" t="s">
@@ -5505,7 +5663,7 @@
       </c>
       <c r="AD74" s="33" t="e"/>
       <c r="AE74" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF74" s="33" t="e"/>
       <c r="AG74" s="33" t="s">
@@ -5515,11 +5673,11 @@
     </row>
     <row r="75" ht="13" customHeight="true" outlineLevel="1">
       <c r="A75" s="27" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B75" s="27" t="e"/>
       <c r="C75" s="28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D75" s="28" t="e"/>
       <c r="E75" s="27" t="s">
@@ -5539,25 +5697,25 @@
       </c>
       <c r="L75" s="27" t="e"/>
       <c r="M75" s="27" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="N75" s="27" t="e"/>
       <c r="O75" s="27" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="P75" s="27" t="e"/>
       <c r="Q75" s="27" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="R75" s="27" t="e"/>
       <c r="S75" s="31" t="e"/>
       <c r="T75" s="32" t="e"/>
       <c r="U75" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="V75" s="33" t="e"/>
       <c r="W75" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X75" s="33" t="e"/>
       <c r="Y75" s="33" t="s">
@@ -5583,11 +5741,11 @@
     </row>
     <row r="76" ht="13" customHeight="true" outlineLevel="1">
       <c r="A76" s="27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B76" s="27" t="e"/>
       <c r="C76" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D76" s="28" t="e"/>
       <c r="E76" s="27" t="s">
@@ -5607,21 +5765,21 @@
       </c>
       <c r="L76" s="27" t="e"/>
       <c r="M76" s="27" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="N76" s="27" t="e"/>
       <c r="O76" s="27" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="P76" s="27" t="e"/>
       <c r="Q76" s="27" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="R76" s="27" t="e"/>
       <c r="S76" s="31" t="e"/>
       <c r="T76" s="32" t="e"/>
       <c r="U76" s="33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="V76" s="33" t="e"/>
       <c r="W76" s="33" t="s">
@@ -5641,7 +5799,7 @@
       </c>
       <c r="AD76" s="33" t="e"/>
       <c r="AE76" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF76" s="33" t="e"/>
       <c r="AG76" s="33" t="s">
@@ -5651,11 +5809,11 @@
     </row>
     <row r="77" ht="13" customHeight="true" outlineLevel="1">
       <c r="A77" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B77" s="27" t="e"/>
       <c r="C77" s="28" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D77" s="28" t="e"/>
       <c r="E77" s="27" t="s">
@@ -5675,21 +5833,23 @@
       </c>
       <c r="L77" s="27" t="e"/>
       <c r="M77" s="27" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N77" s="27" t="e"/>
       <c r="O77" s="27" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P77" s="27" t="e"/>
       <c r="Q77" s="27" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="R77" s="27" t="e"/>
-      <c r="S77" s="31" t="e"/>
-      <c r="T77" s="32" t="e"/>
+      <c r="S77" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T77" s="33" t="e"/>
       <c r="U77" s="33" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="V77" s="33" t="e"/>
       <c r="W77" s="33" t="s">
@@ -5719,11 +5879,11 @@
     </row>
     <row r="78" ht="13" customHeight="true" outlineLevel="1">
       <c r="A78" s="27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B78" s="27" t="e"/>
       <c r="C78" s="28" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D78" s="28" t="e"/>
       <c r="E78" s="27" t="s">
@@ -5743,23 +5903,21 @@
       </c>
       <c r="L78" s="27" t="e"/>
       <c r="M78" s="27" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="N78" s="27" t="e"/>
       <c r="O78" s="27" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="P78" s="27" t="e"/>
       <c r="Q78" s="27" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="R78" s="27" t="e"/>
-      <c r="S78" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T78" s="33" t="e"/>
+      <c r="S78" s="31" t="e"/>
+      <c r="T78" s="32" t="e"/>
       <c r="U78" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V78" s="33" t="e"/>
       <c r="W78" s="33" t="s">
@@ -5779,7 +5937,7 @@
       </c>
       <c r="AD78" s="33" t="e"/>
       <c r="AE78" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF78" s="33" t="e"/>
       <c r="AG78" s="33" t="s">
@@ -5789,11 +5947,11 @@
     </row>
     <row r="79" ht="13" customHeight="true" outlineLevel="1">
       <c r="A79" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B79" s="27" t="e"/>
       <c r="C79" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="28" t="e"/>
       <c r="E79" s="27" t="s">
@@ -5813,21 +5971,21 @@
       </c>
       <c r="L79" s="27" t="e"/>
       <c r="M79" s="27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N79" s="27" t="e"/>
       <c r="O79" s="27" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="P79" s="27" t="e"/>
       <c r="Q79" s="27" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="R79" s="27" t="e"/>
       <c r="S79" s="31" t="e"/>
       <c r="T79" s="32" t="e"/>
       <c r="U79" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="V79" s="33" t="e"/>
       <c r="W79" s="33" t="s">
@@ -5857,11 +6015,11 @@
     </row>
     <row r="80" ht="13" customHeight="true" outlineLevel="1">
       <c r="A80" s="27" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B80" s="27" t="e"/>
       <c r="C80" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D80" s="28" t="e"/>
       <c r="E80" s="27" t="s">
@@ -5881,23 +6039,21 @@
       </c>
       <c r="L80" s="27" t="e"/>
       <c r="M80" s="27" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="N80" s="27" t="e"/>
       <c r="O80" s="27" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="P80" s="27" t="e"/>
       <c r="Q80" s="27" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="R80" s="27" t="e"/>
-      <c r="S80" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T80" s="33" t="e"/>
+      <c r="S80" s="31" t="e"/>
+      <c r="T80" s="32" t="e"/>
       <c r="U80" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V80" s="33" t="e"/>
       <c r="W80" s="33" t="s">
@@ -5917,7 +6073,7 @@
       </c>
       <c r="AD80" s="33" t="e"/>
       <c r="AE80" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF80" s="33" t="e"/>
       <c r="AG80" s="33" t="s">
@@ -5927,11 +6083,11 @@
     </row>
     <row r="81" ht="13" customHeight="true" outlineLevel="1">
       <c r="A81" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B81" s="27" t="e"/>
       <c r="C81" s="28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="28" t="e"/>
       <c r="E81" s="27" t="s">
@@ -5951,25 +6107,25 @@
       </c>
       <c r="L81" s="27" t="e"/>
       <c r="M81" s="27" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="N81" s="27" t="e"/>
       <c r="O81" s="27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P81" s="27" t="e"/>
       <c r="Q81" s="27" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="R81" s="27" t="e"/>
       <c r="S81" s="31" t="e"/>
       <c r="T81" s="32" t="e"/>
       <c r="U81" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V81" s="33" t="e"/>
       <c r="W81" s="33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="X81" s="33" t="e"/>
       <c r="Y81" s="33" t="s">
@@ -5995,11 +6151,11 @@
     </row>
     <row r="82" ht="13" customHeight="true" outlineLevel="1">
       <c r="A82" s="27" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B82" s="27" t="e"/>
       <c r="C82" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" s="28" t="e"/>
       <c r="E82" s="27" t="s">
@@ -6019,23 +6175,21 @@
       </c>
       <c r="L82" s="27" t="e"/>
       <c r="M82" s="27" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="N82" s="27" t="e"/>
       <c r="O82" s="27" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="P82" s="27" t="e"/>
       <c r="Q82" s="27" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="R82" s="27" t="e"/>
-      <c r="S82" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="T82" s="33" t="e"/>
+      <c r="S82" s="31" t="e"/>
+      <c r="T82" s="32" t="e"/>
       <c r="U82" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V82" s="33" t="e"/>
       <c r="W82" s="33" t="s">
@@ -6065,11 +6219,11 @@
     </row>
     <row r="83" ht="13" customHeight="true" outlineLevel="1">
       <c r="A83" s="27" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="B83" s="27" t="e"/>
       <c r="C83" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="28" t="e"/>
       <c r="E83" s="27" t="s">
@@ -6089,21 +6243,21 @@
       </c>
       <c r="L83" s="27" t="e"/>
       <c r="M83" s="27" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="N83" s="27" t="e"/>
       <c r="O83" s="27" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="P83" s="27" t="e"/>
       <c r="Q83" s="27" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="R83" s="27" t="e"/>
       <c r="S83" s="31" t="e"/>
       <c r="T83" s="32" t="e"/>
       <c r="U83" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="V83" s="33" t="e"/>
       <c r="W83" s="33" t="s">
@@ -6123,7 +6277,7 @@
       </c>
       <c r="AD83" s="33" t="e"/>
       <c r="AE83" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF83" s="33" t="e"/>
       <c r="AG83" s="33" t="s">
@@ -6133,11 +6287,11 @@
     </row>
     <row r="84" ht="13" customHeight="true" outlineLevel="1">
       <c r="A84" s="27" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="B84" s="27" t="e"/>
       <c r="C84" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D84" s="28" t="e"/>
       <c r="E84" s="27" t="s">
@@ -6157,27 +6311,25 @@
       </c>
       <c r="L84" s="27" t="e"/>
       <c r="M84" s="27" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N84" s="27" t="e"/>
       <c r="O84" s="27" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="P84" s="27" t="e"/>
       <c r="Q84" s="27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R84" s="27" t="e"/>
-      <c r="S84" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T84" s="33" t="e"/>
+      <c r="S84" s="31" t="e"/>
+      <c r="T84" s="32" t="e"/>
       <c r="U84" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="V84" s="33" t="e"/>
       <c r="W84" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X84" s="33" t="e"/>
       <c r="Y84" s="33" t="s">
@@ -6203,11 +6355,11 @@
     </row>
     <row r="85" ht="13" customHeight="true" outlineLevel="1">
       <c r="A85" s="27" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B85" s="27" t="e"/>
       <c r="C85" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="28" t="e"/>
       <c r="E85" s="27" t="s">
@@ -6226,26 +6378,26 @@
         <v>30</v>
       </c>
       <c r="L85" s="27" t="e"/>
-      <c r="M85" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="N85" s="34" t="e"/>
+      <c r="M85" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N85" s="27" t="e"/>
       <c r="O85" s="27" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P85" s="27" t="e"/>
       <c r="Q85" s="27" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="R85" s="27" t="e"/>
       <c r="S85" s="31" t="e"/>
       <c r="T85" s="32" t="e"/>
       <c r="U85" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="V85" s="33" t="e"/>
       <c r="W85" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X85" s="33" t="e"/>
       <c r="Y85" s="33" t="s">
@@ -6271,11 +6423,11 @@
     </row>
     <row r="86" ht="13" customHeight="true" outlineLevel="1">
       <c r="A86" s="27" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B86" s="27" t="e"/>
       <c r="C86" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D86" s="28" t="e"/>
       <c r="E86" s="27" t="s">
@@ -6295,21 +6447,21 @@
       </c>
       <c r="L86" s="27" t="e"/>
       <c r="M86" s="27" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="N86" s="27" t="e"/>
       <c r="O86" s="27" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="P86" s="27" t="e"/>
       <c r="Q86" s="27" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="R86" s="27" t="e"/>
       <c r="S86" s="31" t="e"/>
       <c r="T86" s="32" t="e"/>
       <c r="U86" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="V86" s="33" t="e"/>
       <c r="W86" s="33" t="s">
@@ -6329,7 +6481,7 @@
       </c>
       <c r="AD86" s="33" t="e"/>
       <c r="AE86" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF86" s="33" t="e"/>
       <c r="AG86" s="33" t="s">
@@ -6339,11 +6491,11 @@
     </row>
     <row r="87" ht="13" customHeight="true" outlineLevel="1">
       <c r="A87" s="27" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B87" s="27" t="e"/>
       <c r="C87" s="28" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D87" s="28" t="e"/>
       <c r="E87" s="27" t="s">
@@ -6363,21 +6515,21 @@
       </c>
       <c r="L87" s="27" t="e"/>
       <c r="M87" s="27" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="N87" s="27" t="e"/>
       <c r="O87" s="27" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="P87" s="27" t="e"/>
       <c r="Q87" s="27" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="R87" s="27" t="e"/>
       <c r="S87" s="31" t="e"/>
       <c r="T87" s="32" t="e"/>
       <c r="U87" s="33" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V87" s="33" t="e"/>
       <c r="W87" s="33" t="s">
@@ -6397,7 +6549,7 @@
       </c>
       <c r="AD87" s="33" t="e"/>
       <c r="AE87" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF87" s="33" t="e"/>
       <c r="AG87" s="33" t="s">
@@ -6411,7 +6563,7 @@
       </c>
       <c r="B88" s="27" t="e"/>
       <c r="C88" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D88" s="28" t="e"/>
       <c r="E88" s="27" t="s">
@@ -6431,21 +6583,23 @@
       </c>
       <c r="L88" s="27" t="e"/>
       <c r="M88" s="27" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="N88" s="27" t="e"/>
       <c r="O88" s="27" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="P88" s="27" t="e"/>
       <c r="Q88" s="27" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="R88" s="27" t="e"/>
-      <c r="S88" s="31" t="e"/>
-      <c r="T88" s="32" t="e"/>
+      <c r="S88" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T88" s="33" t="e"/>
       <c r="U88" s="33" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="V88" s="33" t="e"/>
       <c r="W88" s="33" t="s">
@@ -6479,7 +6633,7 @@
       </c>
       <c r="B89" s="27" t="e"/>
       <c r="C89" s="28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D89" s="28" t="e"/>
       <c r="E89" s="27" t="s">
@@ -6499,25 +6653,25 @@
       </c>
       <c r="L89" s="27" t="e"/>
       <c r="M89" s="27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="N89" s="27" t="e"/>
       <c r="O89" s="27" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="P89" s="27" t="e"/>
       <c r="Q89" s="27" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="R89" s="27" t="e"/>
       <c r="S89" s="31" t="e"/>
       <c r="T89" s="32" t="e"/>
       <c r="U89" s="33" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="V89" s="33" t="e"/>
       <c r="W89" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X89" s="33" t="e"/>
       <c r="Y89" s="33" t="s">
@@ -6525,7 +6679,7 @@
       </c>
       <c r="Z89" s="33" t="e"/>
       <c r="AA89" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB89" s="33" t="e"/>
       <c r="AC89" s="33" t="s">
@@ -6547,7 +6701,7 @@
       </c>
       <c r="B90" s="27" t="e"/>
       <c r="C90" s="28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D90" s="28" t="e"/>
       <c r="E90" s="27" t="s">
@@ -6567,25 +6721,25 @@
       </c>
       <c r="L90" s="27" t="e"/>
       <c r="M90" s="27" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="N90" s="27" t="e"/>
       <c r="O90" s="27" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="P90" s="27" t="e"/>
       <c r="Q90" s="27" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="R90" s="27" t="e"/>
       <c r="S90" s="31" t="e"/>
       <c r="T90" s="32" t="e"/>
       <c r="U90" s="33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="V90" s="33" t="e"/>
       <c r="W90" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X90" s="33" t="e"/>
       <c r="Y90" s="33" t="s">
@@ -6611,11 +6765,11 @@
     </row>
     <row r="91" ht="13" customHeight="true" outlineLevel="1">
       <c r="A91" s="27" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B91" s="27" t="e"/>
       <c r="C91" s="28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D91" s="28" t="e"/>
       <c r="E91" s="27" t="s">
@@ -6635,21 +6789,21 @@
       </c>
       <c r="L91" s="27" t="e"/>
       <c r="M91" s="27" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="N91" s="27" t="e"/>
       <c r="O91" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P91" s="27" t="e"/>
       <c r="Q91" s="27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="R91" s="27" t="e"/>
       <c r="S91" s="31" t="e"/>
       <c r="T91" s="32" t="e"/>
       <c r="U91" s="33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="V91" s="33" t="e"/>
       <c r="W91" s="33" t="s">
@@ -6669,7 +6823,7 @@
       </c>
       <c r="AD91" s="33" t="e"/>
       <c r="AE91" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF91" s="33" t="e"/>
       <c r="AG91" s="33" t="s">
@@ -6679,11 +6833,11 @@
     </row>
     <row r="92" ht="13" customHeight="true" outlineLevel="1">
       <c r="A92" s="27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B92" s="27" t="e"/>
       <c r="C92" s="28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D92" s="28" t="e"/>
       <c r="E92" s="27" t="s">
@@ -6703,11 +6857,11 @@
       </c>
       <c r="L92" s="27" t="e"/>
       <c r="M92" s="27" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="N92" s="27" t="e"/>
       <c r="O92" s="27" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="P92" s="27" t="e"/>
       <c r="Q92" s="27" t="s">
@@ -6717,11 +6871,11 @@
       <c r="S92" s="31" t="e"/>
       <c r="T92" s="32" t="e"/>
       <c r="U92" s="33" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="V92" s="33" t="e"/>
       <c r="W92" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X92" s="33" t="e"/>
       <c r="Y92" s="33" t="s">
@@ -6747,11 +6901,11 @@
     </row>
     <row r="93" ht="13" customHeight="true" outlineLevel="1">
       <c r="A93" s="27" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="B93" s="27" t="e"/>
       <c r="C93" s="28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D93" s="28" t="e"/>
       <c r="E93" s="27" t="s">
@@ -6771,25 +6925,27 @@
       </c>
       <c r="L93" s="27" t="e"/>
       <c r="M93" s="27" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="N93" s="27" t="e"/>
       <c r="O93" s="27" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="P93" s="27" t="e"/>
       <c r="Q93" s="27" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="R93" s="27" t="e"/>
-      <c r="S93" s="31" t="e"/>
-      <c r="T93" s="32" t="e"/>
+      <c r="S93" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T93" s="33" t="e"/>
       <c r="U93" s="33" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="V93" s="33" t="e"/>
       <c r="W93" s="33" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="X93" s="33" t="e"/>
       <c r="Y93" s="33" t="s">
@@ -6815,11 +6971,11 @@
     </row>
     <row r="94" ht="13" customHeight="true" outlineLevel="1">
       <c r="A94" s="27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B94" s="27" t="e"/>
       <c r="C94" s="28" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D94" s="28" t="e"/>
       <c r="E94" s="27" t="s">
@@ -6839,25 +6995,25 @@
       </c>
       <c r="L94" s="27" t="e"/>
       <c r="M94" s="27" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="N94" s="27" t="e"/>
       <c r="O94" s="27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P94" s="27" t="e"/>
       <c r="Q94" s="27" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="R94" s="27" t="e"/>
       <c r="S94" s="31" t="e"/>
       <c r="T94" s="32" t="e"/>
       <c r="U94" s="33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="V94" s="33" t="e"/>
       <c r="W94" s="33" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="X94" s="33" t="e"/>
       <c r="Y94" s="33" t="s">
@@ -6873,7 +7029,7 @@
       </c>
       <c r="AD94" s="33" t="e"/>
       <c r="AE94" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF94" s="33" t="e"/>
       <c r="AG94" s="33" t="s">
@@ -6887,7 +7043,7 @@
       </c>
       <c r="B95" s="27" t="e"/>
       <c r="C95" s="28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D95" s="28" t="e"/>
       <c r="E95" s="27" t="s">
@@ -6907,21 +7063,23 @@
       </c>
       <c r="L95" s="27" t="e"/>
       <c r="M95" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N95" s="27" t="e"/>
       <c r="O95" s="27" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="P95" s="27" t="e"/>
       <c r="Q95" s="27" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="R95" s="27" t="e"/>
-      <c r="S95" s="31" t="e"/>
-      <c r="T95" s="32" t="e"/>
+      <c r="S95" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T95" s="33" t="e"/>
       <c r="U95" s="33" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="V95" s="33" t="e"/>
       <c r="W95" s="33" t="s">
@@ -6941,7 +7099,7 @@
       </c>
       <c r="AD95" s="33" t="e"/>
       <c r="AE95" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF95" s="33" t="e"/>
       <c r="AG95" s="33" t="s">
@@ -6951,11 +7109,11 @@
     </row>
     <row r="96" ht="13" customHeight="true" outlineLevel="1">
       <c r="A96" s="27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B96" s="27" t="e"/>
       <c r="C96" s="28" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D96" s="28" t="e"/>
       <c r="E96" s="27" t="s">
@@ -6975,25 +7133,25 @@
       </c>
       <c r="L96" s="27" t="e"/>
       <c r="M96" s="27" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="N96" s="27" t="e"/>
       <c r="O96" s="27" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="P96" s="27" t="e"/>
       <c r="Q96" s="27" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="R96" s="27" t="e"/>
       <c r="S96" s="31" t="e"/>
       <c r="T96" s="32" t="e"/>
       <c r="U96" s="33" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="V96" s="33" t="e"/>
       <c r="W96" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X96" s="33" t="e"/>
       <c r="Y96" s="33" t="s">
@@ -7019,11 +7177,11 @@
     </row>
     <row r="97" ht="13" customHeight="true" outlineLevel="1">
       <c r="A97" s="27" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B97" s="27" t="e"/>
       <c r="C97" s="28" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D97" s="28" t="e"/>
       <c r="E97" s="27" t="s">
@@ -7043,25 +7201,25 @@
       </c>
       <c r="L97" s="27" t="e"/>
       <c r="M97" s="27" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="N97" s="27" t="e"/>
-      <c r="O97" s="29" t="e"/>
-      <c r="P97" s="30" t="e"/>
+      <c r="O97" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P97" s="27" t="e"/>
       <c r="Q97" s="27" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="R97" s="27" t="e"/>
-      <c r="S97" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T97" s="33" t="e"/>
+      <c r="S97" s="31" t="e"/>
+      <c r="T97" s="32" t="e"/>
       <c r="U97" s="33" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="V97" s="33" t="e"/>
       <c r="W97" s="33" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="X97" s="33" t="e"/>
       <c r="Y97" s="33" t="s">
@@ -7077,7 +7235,7 @@
       </c>
       <c r="AD97" s="33" t="e"/>
       <c r="AE97" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF97" s="33" t="e"/>
       <c r="AG97" s="33" t="s">
@@ -7091,7 +7249,7 @@
       </c>
       <c r="B98" s="27" t="e"/>
       <c r="C98" s="28" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D98" s="28" t="e"/>
       <c r="E98" s="27" t="s">
@@ -7111,25 +7269,25 @@
       </c>
       <c r="L98" s="27" t="e"/>
       <c r="M98" s="27" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="N98" s="27" t="e"/>
       <c r="O98" s="27" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="P98" s="27" t="e"/>
       <c r="Q98" s="27" t="s">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="R98" s="27" t="e"/>
       <c r="S98" s="31" t="e"/>
       <c r="T98" s="32" t="e"/>
       <c r="U98" s="33" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="V98" s="33" t="e"/>
       <c r="W98" s="33" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="X98" s="33" t="e"/>
       <c r="Y98" s="33" t="s">
@@ -7145,7 +7303,7 @@
       </c>
       <c r="AD98" s="33" t="e"/>
       <c r="AE98" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF98" s="33" t="e"/>
       <c r="AG98" s="33" t="s">
@@ -7155,11 +7313,11 @@
     </row>
     <row r="99" ht="13" customHeight="true" outlineLevel="1">
       <c r="A99" s="27" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B99" s="27" t="e"/>
       <c r="C99" s="28" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D99" s="28" t="e"/>
       <c r="E99" s="27" t="s">
@@ -7179,19 +7337,23 @@
       </c>
       <c r="L99" s="27" t="e"/>
       <c r="M99" s="27" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="N99" s="27" t="e"/>
-      <c r="O99" s="29" t="e"/>
-      <c r="P99" s="30" t="e"/>
+      <c r="O99" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="P99" s="27" t="e"/>
       <c r="Q99" s="27" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="R99" s="27" t="e"/>
-      <c r="S99" s="31" t="e"/>
-      <c r="T99" s="32" t="e"/>
+      <c r="S99" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T99" s="33" t="e"/>
       <c r="U99" s="33" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="V99" s="33" t="e"/>
       <c r="W99" s="33" t="s">
@@ -7221,11 +7383,11 @@
     </row>
     <row r="100" ht="13" customHeight="true" outlineLevel="1">
       <c r="A100" s="27" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B100" s="27" t="e"/>
       <c r="C100" s="28" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D100" s="28" t="e"/>
       <c r="E100" s="27" t="s">
@@ -7245,25 +7407,27 @@
       </c>
       <c r="L100" s="27" t="e"/>
       <c r="M100" s="27" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="N100" s="27" t="e"/>
-      <c r="O100" s="29" t="e"/>
-      <c r="P100" s="30" t="e"/>
+      <c r="O100" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" s="27" t="e"/>
       <c r="Q100" s="27" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="R100" s="27" t="e"/>
       <c r="S100" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T100" s="33" t="e"/>
       <c r="U100" s="33" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="V100" s="33" t="e"/>
       <c r="W100" s="33" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="X100" s="33" t="e"/>
       <c r="Y100" s="33" t="s">
@@ -7289,11 +7453,11 @@
     </row>
     <row r="101" ht="13" customHeight="true" outlineLevel="1">
       <c r="A101" s="27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B101" s="27" t="e"/>
       <c r="C101" s="28" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D101" s="28" t="e"/>
       <c r="E101" s="27" t="s">
@@ -7313,23 +7477,25 @@
       </c>
       <c r="L101" s="27" t="e"/>
       <c r="M101" s="27" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="N101" s="27" t="e"/>
-      <c r="O101" s="29" t="e"/>
-      <c r="P101" s="30" t="e"/>
+      <c r="O101" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="P101" s="27" t="e"/>
       <c r="Q101" s="27" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="R101" s="27" t="e"/>
       <c r="S101" s="31" t="e"/>
       <c r="T101" s="32" t="e"/>
       <c r="U101" s="33" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="V101" s="33" t="e"/>
       <c r="W101" s="33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="X101" s="33" t="e"/>
       <c r="Y101" s="33" t="s">
@@ -7345,7 +7511,7 @@
       </c>
       <c r="AD101" s="33" t="e"/>
       <c r="AE101" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF101" s="33" t="e"/>
       <c r="AG101" s="33" t="s">
@@ -7355,11 +7521,11 @@
     </row>
     <row r="102" ht="13" customHeight="true" outlineLevel="1">
       <c r="A102" s="27" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B102" s="27" t="e"/>
       <c r="C102" s="28" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D102" s="28" t="e"/>
       <c r="E102" s="27" t="s">
@@ -7379,23 +7545,27 @@
       </c>
       <c r="L102" s="27" t="e"/>
       <c r="M102" s="27" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="N102" s="27" t="e"/>
-      <c r="O102" s="29" t="e"/>
-      <c r="P102" s="30" t="e"/>
+      <c r="O102" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="P102" s="27" t="e"/>
       <c r="Q102" s="27" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="R102" s="27" t="e"/>
-      <c r="S102" s="31" t="e"/>
-      <c r="T102" s="32" t="e"/>
+      <c r="S102" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T102" s="33" t="e"/>
       <c r="U102" s="33" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="V102" s="33" t="e"/>
       <c r="W102" s="33" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="X102" s="33" t="e"/>
       <c r="Y102" s="33" t="s">
@@ -7411,7 +7581,7 @@
       </c>
       <c r="AD102" s="33" t="e"/>
       <c r="AE102" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF102" s="33" t="e"/>
       <c r="AG102" s="33" t="s">
@@ -7421,11 +7591,11 @@
     </row>
     <row r="103" ht="13" customHeight="true" outlineLevel="1">
       <c r="A103" s="27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B103" s="27" t="e"/>
       <c r="C103" s="28" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D103" s="28" t="e"/>
       <c r="E103" s="27" t="s">
@@ -7444,24 +7614,26 @@
         <v>30</v>
       </c>
       <c r="L103" s="27" t="e"/>
-      <c r="M103" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N103" s="27" t="e"/>
-      <c r="O103" s="29" t="e"/>
-      <c r="P103" s="30" t="e"/>
+      <c r="M103" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N103" s="34" t="e"/>
+      <c r="O103" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="P103" s="27" t="e"/>
       <c r="Q103" s="27" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="R103" s="27" t="e"/>
       <c r="S103" s="31" t="e"/>
       <c r="T103" s="32" t="e"/>
       <c r="U103" s="33" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="V103" s="33" t="e"/>
       <c r="W103" s="33" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="X103" s="33" t="e"/>
       <c r="Y103" s="33" t="s">
@@ -7487,11 +7659,11 @@
     </row>
     <row r="104" ht="13" customHeight="true" outlineLevel="1">
       <c r="A104" s="27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B104" s="27" t="e"/>
       <c r="C104" s="28" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D104" s="28" t="e"/>
       <c r="E104" s="27" t="s">
@@ -7511,23 +7683,25 @@
       </c>
       <c r="L104" s="27" t="e"/>
       <c r="M104" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N104" s="27" t="e"/>
-      <c r="O104" s="29" t="e"/>
-      <c r="P104" s="30" t="e"/>
+      <c r="O104" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="P104" s="27" t="e"/>
       <c r="Q104" s="27" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="R104" s="27" t="e"/>
       <c r="S104" s="31" t="e"/>
       <c r="T104" s="32" t="e"/>
       <c r="U104" s="33" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="V104" s="33" t="e"/>
       <c r="W104" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X104" s="33" t="e"/>
       <c r="Y104" s="33" t="s">
@@ -7543,7 +7717,7 @@
       </c>
       <c r="AD104" s="33" t="e"/>
       <c r="AE104" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF104" s="33" t="e"/>
       <c r="AG104" s="33" t="s">
@@ -7553,11 +7727,11 @@
     </row>
     <row r="105" ht="13" customHeight="true" outlineLevel="1">
       <c r="A105" s="27" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B105" s="27" t="e"/>
       <c r="C105" s="28" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D105" s="28" t="e"/>
       <c r="E105" s="27" t="s">
@@ -7577,19 +7751,21 @@
       </c>
       <c r="L105" s="27" t="e"/>
       <c r="M105" s="27" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="N105" s="27" t="e"/>
-      <c r="O105" s="29" t="e"/>
-      <c r="P105" s="30" t="e"/>
+      <c r="O105" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="P105" s="27" t="e"/>
       <c r="Q105" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R105" s="27" t="e"/>
       <c r="S105" s="31" t="e"/>
       <c r="T105" s="32" t="e"/>
       <c r="U105" s="33" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="V105" s="33" t="e"/>
       <c r="W105" s="33" t="s">
@@ -7619,11 +7795,11 @@
     </row>
     <row r="106" ht="13" customHeight="true" outlineLevel="1">
       <c r="A106" s="27" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B106" s="27" t="e"/>
       <c r="C106" s="28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D106" s="28" t="e"/>
       <c r="E106" s="27" t="s">
@@ -7643,23 +7819,25 @@
       </c>
       <c r="L106" s="27" t="e"/>
       <c r="M106" s="27" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="N106" s="27" t="e"/>
-      <c r="O106" s="29" t="e"/>
-      <c r="P106" s="30" t="e"/>
+      <c r="O106" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="P106" s="27" t="e"/>
       <c r="Q106" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R106" s="27" t="e"/>
       <c r="S106" s="31" t="e"/>
       <c r="T106" s="32" t="e"/>
       <c r="U106" s="33" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="V106" s="33" t="e"/>
       <c r="W106" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X106" s="33" t="e"/>
       <c r="Y106" s="33" t="s">
@@ -7675,7 +7853,7 @@
       </c>
       <c r="AD106" s="33" t="e"/>
       <c r="AE106" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF106" s="33" t="e"/>
       <c r="AG106" s="33" t="s">
@@ -7685,11 +7863,11 @@
     </row>
     <row r="107" ht="13" customHeight="true" outlineLevel="1">
       <c r="A107" s="27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B107" s="27" t="e"/>
       <c r="C107" s="28" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D107" s="28" t="e"/>
       <c r="E107" s="27" t="s">
@@ -7709,23 +7887,25 @@
       </c>
       <c r="L107" s="27" t="e"/>
       <c r="M107" s="27" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N107" s="27" t="e"/>
-      <c r="O107" s="29" t="e"/>
-      <c r="P107" s="30" t="e"/>
+      <c r="O107" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P107" s="27" t="e"/>
       <c r="Q107" s="27" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="R107" s="27" t="e"/>
       <c r="S107" s="31" t="e"/>
       <c r="T107" s="32" t="e"/>
       <c r="U107" s="33" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="V107" s="33" t="e"/>
       <c r="W107" s="33" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="X107" s="33" t="e"/>
       <c r="Y107" s="33" t="s">
@@ -7733,7 +7913,7 @@
       </c>
       <c r="Z107" s="33" t="e"/>
       <c r="AA107" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB107" s="33" t="e"/>
       <c r="AC107" s="33" t="s">
@@ -7751,11 +7931,11 @@
     </row>
     <row r="108" ht="13" customHeight="true" outlineLevel="1">
       <c r="A108" s="27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B108" s="27" t="e"/>
       <c r="C108" s="28" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D108" s="28" t="e"/>
       <c r="E108" s="27" t="s">
@@ -7775,19 +7955,21 @@
       </c>
       <c r="L108" s="27" t="e"/>
       <c r="M108" s="27" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="N108" s="27" t="e"/>
-      <c r="O108" s="29" t="e"/>
-      <c r="P108" s="30" t="e"/>
+      <c r="O108" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="P108" s="27" t="e"/>
       <c r="Q108" s="27" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="R108" s="27" t="e"/>
       <c r="S108" s="31" t="e"/>
       <c r="T108" s="32" t="e"/>
       <c r="U108" s="33" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="V108" s="33" t="e"/>
       <c r="W108" s="33" t="s">
@@ -7817,11 +7999,11 @@
     </row>
     <row r="109" ht="13" customHeight="true" outlineLevel="1">
       <c r="A109" s="27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B109" s="27" t="e"/>
       <c r="C109" s="28" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D109" s="28" t="e"/>
       <c r="E109" s="27" t="s">
@@ -7840,18 +8022,22 @@
         <v>30</v>
       </c>
       <c r="L109" s="27" t="e"/>
-      <c r="M109" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="N109" s="35" t="e"/>
-      <c r="O109" s="29" t="e"/>
-      <c r="P109" s="30" t="e"/>
-      <c r="Q109" s="29" t="e"/>
-      <c r="R109" s="30" t="e"/>
+      <c r="M109" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N109" s="27" t="e"/>
+      <c r="O109" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P109" s="27" t="e"/>
+      <c r="Q109" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R109" s="27" t="e"/>
       <c r="S109" s="31" t="e"/>
       <c r="T109" s="32" t="e"/>
       <c r="U109" s="33" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="V109" s="33" t="e"/>
       <c r="W109" s="33" t="s">
@@ -7881,11 +8067,11 @@
     </row>
     <row r="110" ht="13" customHeight="true" outlineLevel="1">
       <c r="A110" s="27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B110" s="27" t="e"/>
       <c r="C110" s="28" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D110" s="28" t="e"/>
       <c r="E110" s="27" t="s">
@@ -7904,22 +8090,28 @@
         <v>30</v>
       </c>
       <c r="L110" s="27" t="e"/>
-      <c r="M110" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="N110" s="35" t="e"/>
-      <c r="O110" s="29" t="e"/>
-      <c r="P110" s="30" t="e"/>
-      <c r="Q110" s="29" t="e"/>
-      <c r="R110" s="30" t="e"/>
-      <c r="S110" s="31" t="e"/>
-      <c r="T110" s="32" t="e"/>
+      <c r="M110" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N110" s="27" t="e"/>
+      <c r="O110" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="P110" s="27" t="e"/>
+      <c r="Q110" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="R110" s="27" t="e"/>
+      <c r="S110" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T110" s="33" t="e"/>
       <c r="U110" s="33" t="s">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="V110" s="33" t="e"/>
       <c r="W110" s="33" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X110" s="33" t="e"/>
       <c r="Y110" s="33" t="s">
@@ -7935,7 +8127,7 @@
       </c>
       <c r="AD110" s="33" t="e"/>
       <c r="AE110" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF110" s="33" t="e"/>
       <c r="AG110" s="33" t="s">
@@ -7945,11 +8137,11 @@
     </row>
     <row r="111" ht="13" customHeight="true" outlineLevel="1">
       <c r="A111" s="27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B111" s="27" t="e"/>
       <c r="C111" s="28" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D111" s="28" t="e"/>
       <c r="E111" s="27" t="s">
@@ -7968,18 +8160,22 @@
         <v>30</v>
       </c>
       <c r="L111" s="27" t="e"/>
-      <c r="M111" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="N111" s="35" t="e"/>
-      <c r="O111" s="29" t="e"/>
-      <c r="P111" s="30" t="e"/>
-      <c r="Q111" s="29" t="e"/>
-      <c r="R111" s="30" t="e"/>
+      <c r="M111" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N111" s="27" t="e"/>
+      <c r="O111" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P111" s="27" t="e"/>
+      <c r="Q111" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R111" s="27" t="e"/>
       <c r="S111" s="31" t="e"/>
       <c r="T111" s="32" t="e"/>
       <c r="U111" s="33" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="V111" s="33" t="e"/>
       <c r="W111" s="33" t="s">
@@ -8009,11 +8205,11 @@
     </row>
     <row r="112" ht="13" customHeight="true" outlineLevel="1">
       <c r="A112" s="27" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B112" s="27" t="e"/>
       <c r="C112" s="28" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D112" s="28" t="e"/>
       <c r="E112" s="27" t="s">
@@ -8032,18 +8228,26 @@
         <v>30</v>
       </c>
       <c r="L112" s="27" t="e"/>
-      <c r="M112" s="29" t="e"/>
-      <c r="N112" s="30" t="e"/>
-      <c r="O112" s="29" t="e"/>
-      <c r="P112" s="30" t="e"/>
-      <c r="Q112" s="29" t="e"/>
-      <c r="R112" s="30" t="e"/>
+      <c r="M112" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N112" s="27" t="e"/>
+      <c r="O112" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="P112" s="27" t="e"/>
+      <c r="Q112" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R112" s="27" t="e"/>
       <c r="S112" s="31" t="e"/>
       <c r="T112" s="32" t="e"/>
-      <c r="U112" s="31" t="e"/>
-      <c r="V112" s="32" t="e"/>
+      <c r="U112" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="V112" s="33" t="e"/>
       <c r="W112" s="33" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="X112" s="33" t="e"/>
       <c r="Y112" s="33" t="s">
@@ -8055,7 +8259,7 @@
       </c>
       <c r="AB112" s="33" t="e"/>
       <c r="AC112" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD112" s="33" t="e"/>
       <c r="AE112" s="33" t="s">
@@ -8067,9 +8271,1601 @@
       </c>
       <c r="AH112" s="33" t="e"/>
     </row>
-    <row r="113" ht="10" customHeight="true" s="1" customFormat="true"/>
+    <row r="113" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A113" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="27" t="e"/>
+      <c r="C113" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="28" t="e"/>
+      <c r="E113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="27" t="e"/>
+      <c r="G113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="27" t="e"/>
+      <c r="I113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="27" t="e"/>
+      <c r="K113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="27" t="e"/>
+      <c r="M113" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="N113" s="27" t="e"/>
+      <c r="O113" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="P113" s="27" t="e"/>
+      <c r="Q113" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="R113" s="27" t="e"/>
+      <c r="S113" s="31" t="e"/>
+      <c r="T113" s="32" t="e"/>
+      <c r="U113" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="V113" s="33" t="e"/>
+      <c r="W113" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X113" s="33" t="e"/>
+      <c r="Y113" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z113" s="33" t="e"/>
+      <c r="AA113" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB113" s="33" t="e"/>
+      <c r="AC113" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD113" s="33" t="e"/>
+      <c r="AE113" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF113" s="33" t="e"/>
+      <c r="AG113" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH113" s="33" t="e"/>
+    </row>
+    <row r="114" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A114" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="27" t="e"/>
+      <c r="C114" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="28" t="e"/>
+      <c r="E114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="27" t="e"/>
+      <c r="G114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" s="27" t="e"/>
+      <c r="I114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J114" s="27" t="e"/>
+      <c r="K114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="27" t="e"/>
+      <c r="M114" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N114" s="27" t="e"/>
+      <c r="O114" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="P114" s="27" t="e"/>
+      <c r="Q114" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="R114" s="27" t="e"/>
+      <c r="S114" s="31" t="e"/>
+      <c r="T114" s="32" t="e"/>
+      <c r="U114" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="V114" s="33" t="e"/>
+      <c r="W114" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X114" s="33" t="e"/>
+      <c r="Y114" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z114" s="33" t="e"/>
+      <c r="AA114" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB114" s="33" t="e"/>
+      <c r="AC114" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD114" s="33" t="e"/>
+      <c r="AE114" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF114" s="33" t="e"/>
+      <c r="AG114" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH114" s="33" t="e"/>
+    </row>
+    <row r="115" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A115" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="27" t="e"/>
+      <c r="C115" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D115" s="28" t="e"/>
+      <c r="E115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="27" t="e"/>
+      <c r="G115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="27" t="e"/>
+      <c r="I115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="27" t="e"/>
+      <c r="K115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" s="27" t="e"/>
+      <c r="M115" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="N115" s="27" t="e"/>
+      <c r="O115" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="P115" s="27" t="e"/>
+      <c r="Q115" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R115" s="27" t="e"/>
+      <c r="S115" s="31" t="e"/>
+      <c r="T115" s="32" t="e"/>
+      <c r="U115" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="V115" s="33" t="e"/>
+      <c r="W115" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X115" s="33" t="e"/>
+      <c r="Y115" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z115" s="33" t="e"/>
+      <c r="AA115" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB115" s="33" t="e"/>
+      <c r="AC115" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD115" s="33" t="e"/>
+      <c r="AE115" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF115" s="33" t="e"/>
+      <c r="AG115" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH115" s="33" t="e"/>
+    </row>
+    <row r="116" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A116" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B116" s="27" t="e"/>
+      <c r="C116" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D116" s="28" t="e"/>
+      <c r="E116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="27" t="e"/>
+      <c r="G116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" s="27" t="e"/>
+      <c r="I116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" s="27" t="e"/>
+      <c r="K116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L116" s="27" t="e"/>
+      <c r="M116" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N116" s="27" t="e"/>
+      <c r="O116" s="29" t="e"/>
+      <c r="P116" s="30" t="e"/>
+      <c r="Q116" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R116" s="27" t="e"/>
+      <c r="S116" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T116" s="33" t="e"/>
+      <c r="U116" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="V116" s="33" t="e"/>
+      <c r="W116" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X116" s="33" t="e"/>
+      <c r="Y116" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z116" s="33" t="e"/>
+      <c r="AA116" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB116" s="33" t="e"/>
+      <c r="AC116" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD116" s="33" t="e"/>
+      <c r="AE116" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF116" s="33" t="e"/>
+      <c r="AG116" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH116" s="33" t="e"/>
+    </row>
+    <row r="117" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A117" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="27" t="e"/>
+      <c r="C117" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="28" t="e"/>
+      <c r="E117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="27" t="e"/>
+      <c r="G117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" s="27" t="e"/>
+      <c r="I117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="27" t="e"/>
+      <c r="K117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="27" t="e"/>
+      <c r="M117" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N117" s="27" t="e"/>
+      <c r="O117" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="P117" s="27" t="e"/>
+      <c r="Q117" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="R117" s="27" t="e"/>
+      <c r="S117" s="31" t="e"/>
+      <c r="T117" s="32" t="e"/>
+      <c r="U117" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="V117" s="33" t="e"/>
+      <c r="W117" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X117" s="33" t="e"/>
+      <c r="Y117" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z117" s="33" t="e"/>
+      <c r="AA117" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB117" s="33" t="e"/>
+      <c r="AC117" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD117" s="33" t="e"/>
+      <c r="AE117" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF117" s="33" t="e"/>
+      <c r="AG117" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH117" s="33" t="e"/>
+    </row>
+    <row r="118" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A118" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B118" s="27" t="e"/>
+      <c r="C118" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D118" s="28" t="e"/>
+      <c r="E118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="27" t="e"/>
+      <c r="G118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" s="27" t="e"/>
+      <c r="I118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J118" s="27" t="e"/>
+      <c r="K118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L118" s="27" t="e"/>
+      <c r="M118" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N118" s="27" t="e"/>
+      <c r="O118" s="29" t="e"/>
+      <c r="P118" s="30" t="e"/>
+      <c r="Q118" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="R118" s="27" t="e"/>
+      <c r="S118" s="31" t="e"/>
+      <c r="T118" s="32" t="e"/>
+      <c r="U118" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="V118" s="33" t="e"/>
+      <c r="W118" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X118" s="33" t="e"/>
+      <c r="Y118" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z118" s="33" t="e"/>
+      <c r="AA118" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB118" s="33" t="e"/>
+      <c r="AC118" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD118" s="33" t="e"/>
+      <c r="AE118" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF118" s="33" t="e"/>
+      <c r="AG118" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH118" s="33" t="e"/>
+    </row>
+    <row r="119" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A119" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B119" s="27" t="e"/>
+      <c r="C119" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D119" s="28" t="e"/>
+      <c r="E119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="27" t="e"/>
+      <c r="G119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="27" t="e"/>
+      <c r="I119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J119" s="27" t="e"/>
+      <c r="K119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L119" s="27" t="e"/>
+      <c r="M119" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N119" s="27" t="e"/>
+      <c r="O119" s="29" t="e"/>
+      <c r="P119" s="30" t="e"/>
+      <c r="Q119" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R119" s="27" t="e"/>
+      <c r="S119" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T119" s="33" t="e"/>
+      <c r="U119" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="V119" s="33" t="e"/>
+      <c r="W119" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X119" s="33" t="e"/>
+      <c r="Y119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z119" s="33" t="e"/>
+      <c r="AA119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB119" s="33" t="e"/>
+      <c r="AC119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD119" s="33" t="e"/>
+      <c r="AE119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF119" s="33" t="e"/>
+      <c r="AG119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH119" s="33" t="e"/>
+    </row>
+    <row r="120" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A120" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B120" s="27" t="e"/>
+      <c r="C120" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" s="28" t="e"/>
+      <c r="E120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="27" t="e"/>
+      <c r="G120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="27" t="e"/>
+      <c r="I120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J120" s="27" t="e"/>
+      <c r="K120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="27" t="e"/>
+      <c r="M120" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N120" s="27" t="e"/>
+      <c r="O120" s="29" t="e"/>
+      <c r="P120" s="30" t="e"/>
+      <c r="Q120" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="R120" s="27" t="e"/>
+      <c r="S120" s="31" t="e"/>
+      <c r="T120" s="32" t="e"/>
+      <c r="U120" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="V120" s="33" t="e"/>
+      <c r="W120" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X120" s="33" t="e"/>
+      <c r="Y120" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z120" s="33" t="e"/>
+      <c r="AA120" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB120" s="33" t="e"/>
+      <c r="AC120" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD120" s="33" t="e"/>
+      <c r="AE120" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF120" s="33" t="e"/>
+      <c r="AG120" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH120" s="33" t="e"/>
+    </row>
+    <row r="121" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A121" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="27" t="e"/>
+      <c r="C121" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D121" s="28" t="e"/>
+      <c r="E121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="27" t="e"/>
+      <c r="G121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="27" t="e"/>
+      <c r="I121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J121" s="27" t="e"/>
+      <c r="K121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="27" t="e"/>
+      <c r="M121" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N121" s="27" t="e"/>
+      <c r="O121" s="29" t="e"/>
+      <c r="P121" s="30" t="e"/>
+      <c r="Q121" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="R121" s="27" t="e"/>
+      <c r="S121" s="31" t="e"/>
+      <c r="T121" s="32" t="e"/>
+      <c r="U121" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="V121" s="33" t="e"/>
+      <c r="W121" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X121" s="33" t="e"/>
+      <c r="Y121" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z121" s="33" t="e"/>
+      <c r="AA121" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB121" s="33" t="e"/>
+      <c r="AC121" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD121" s="33" t="e"/>
+      <c r="AE121" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF121" s="33" t="e"/>
+      <c r="AG121" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH121" s="33" t="e"/>
+    </row>
+    <row r="122" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A122" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B122" s="27" t="e"/>
+      <c r="C122" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D122" s="28" t="e"/>
+      <c r="E122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="27" t="e"/>
+      <c r="G122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="27" t="e"/>
+      <c r="I122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J122" s="27" t="e"/>
+      <c r="K122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="27" t="e"/>
+      <c r="M122" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="N122" s="27" t="e"/>
+      <c r="O122" s="29" t="e"/>
+      <c r="P122" s="30" t="e"/>
+      <c r="Q122" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="R122" s="27" t="e"/>
+      <c r="S122" s="31" t="e"/>
+      <c r="T122" s="32" t="e"/>
+      <c r="U122" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="V122" s="33" t="e"/>
+      <c r="W122" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X122" s="33" t="e"/>
+      <c r="Y122" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z122" s="33" t="e"/>
+      <c r="AA122" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB122" s="33" t="e"/>
+      <c r="AC122" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD122" s="33" t="e"/>
+      <c r="AE122" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF122" s="33" t="e"/>
+      <c r="AG122" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH122" s="33" t="e"/>
+    </row>
+    <row r="123" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A123" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" s="27" t="e"/>
+      <c r="C123" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D123" s="28" t="e"/>
+      <c r="E123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="27" t="e"/>
+      <c r="G123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" s="27" t="e"/>
+      <c r="I123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123" s="27" t="e"/>
+      <c r="K123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="27" t="e"/>
+      <c r="M123" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N123" s="27" t="e"/>
+      <c r="O123" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="P123" s="27" t="e"/>
+      <c r="Q123" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="R123" s="27" t="e"/>
+      <c r="S123" s="31" t="e"/>
+      <c r="T123" s="32" t="e"/>
+      <c r="U123" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="V123" s="33" t="e"/>
+      <c r="W123" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X123" s="33" t="e"/>
+      <c r="Y123" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z123" s="33" t="e"/>
+      <c r="AA123" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB123" s="33" t="e"/>
+      <c r="AC123" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD123" s="33" t="e"/>
+      <c r="AE123" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF123" s="33" t="e"/>
+      <c r="AG123" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH123" s="33" t="e"/>
+    </row>
+    <row r="124" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A124" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B124" s="27" t="e"/>
+      <c r="C124" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D124" s="28" t="e"/>
+      <c r="E124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="27" t="e"/>
+      <c r="G124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="27" t="e"/>
+      <c r="I124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J124" s="27" t="e"/>
+      <c r="K124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="27" t="e"/>
+      <c r="M124" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N124" s="27" t="e"/>
+      <c r="O124" s="29" t="e"/>
+      <c r="P124" s="30" t="e"/>
+      <c r="Q124" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="R124" s="27" t="e"/>
+      <c r="S124" s="31" t="e"/>
+      <c r="T124" s="32" t="e"/>
+      <c r="U124" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="V124" s="33" t="e"/>
+      <c r="W124" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="X124" s="33" t="e"/>
+      <c r="Y124" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z124" s="33" t="e"/>
+      <c r="AA124" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB124" s="33" t="e"/>
+      <c r="AC124" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD124" s="33" t="e"/>
+      <c r="AE124" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF124" s="33" t="e"/>
+      <c r="AG124" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH124" s="33" t="e"/>
+    </row>
+    <row r="125" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A125" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" s="27" t="e"/>
+      <c r="C125" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="D125" s="28" t="e"/>
+      <c r="E125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="27" t="e"/>
+      <c r="G125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="27" t="e"/>
+      <c r="I125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J125" s="27" t="e"/>
+      <c r="K125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="27" t="e"/>
+      <c r="M125" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="N125" s="27" t="e"/>
+      <c r="O125" s="29" t="e"/>
+      <c r="P125" s="30" t="e"/>
+      <c r="Q125" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R125" s="27" t="e"/>
+      <c r="S125" s="31" t="e"/>
+      <c r="T125" s="32" t="e"/>
+      <c r="U125" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="V125" s="33" t="e"/>
+      <c r="W125" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X125" s="33" t="e"/>
+      <c r="Y125" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z125" s="33" t="e"/>
+      <c r="AA125" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB125" s="33" t="e"/>
+      <c r="AC125" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD125" s="33" t="e"/>
+      <c r="AE125" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF125" s="33" t="e"/>
+      <c r="AG125" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH125" s="33" t="e"/>
+    </row>
+    <row r="126" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A126" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126" s="27" t="e"/>
+      <c r="C126" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="28" t="e"/>
+      <c r="E126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="27" t="e"/>
+      <c r="G126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" s="27" t="e"/>
+      <c r="I126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J126" s="27" t="e"/>
+      <c r="K126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="27" t="e"/>
+      <c r="M126" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N126" s="27" t="e"/>
+      <c r="O126" s="29" t="e"/>
+      <c r="P126" s="30" t="e"/>
+      <c r="Q126" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R126" s="27" t="e"/>
+      <c r="S126" s="31" t="e"/>
+      <c r="T126" s="32" t="e"/>
+      <c r="U126" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="V126" s="33" t="e"/>
+      <c r="W126" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X126" s="33" t="e"/>
+      <c r="Y126" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z126" s="33" t="e"/>
+      <c r="AA126" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB126" s="33" t="e"/>
+      <c r="AC126" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD126" s="33" t="e"/>
+      <c r="AE126" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF126" s="33" t="e"/>
+      <c r="AG126" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH126" s="33" t="e"/>
+    </row>
+    <row r="127" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A127" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B127" s="27" t="e"/>
+      <c r="C127" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D127" s="28" t="e"/>
+      <c r="E127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="27" t="e"/>
+      <c r="G127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="27" t="e"/>
+      <c r="I127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J127" s="27" t="e"/>
+      <c r="K127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="27" t="e"/>
+      <c r="M127" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N127" s="27" t="e"/>
+      <c r="O127" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="P127" s="27" t="e"/>
+      <c r="Q127" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="R127" s="27" t="e"/>
+      <c r="S127" s="31" t="e"/>
+      <c r="T127" s="32" t="e"/>
+      <c r="U127" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="V127" s="33" t="e"/>
+      <c r="W127" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="X127" s="33" t="e"/>
+      <c r="Y127" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z127" s="33" t="e"/>
+      <c r="AA127" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB127" s="33" t="e"/>
+      <c r="AC127" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD127" s="33" t="e"/>
+      <c r="AE127" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF127" s="33" t="e"/>
+      <c r="AG127" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH127" s="33" t="e"/>
+    </row>
+    <row r="128" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A128" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B128" s="27" t="e"/>
+      <c r="C128" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D128" s="28" t="e"/>
+      <c r="E128" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="27" t="e"/>
+      <c r="G128" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" s="27" t="e"/>
+      <c r="I128" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J128" s="27" t="e"/>
+      <c r="K128" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128" s="27" t="e"/>
+      <c r="M128" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="N128" s="27" t="e"/>
+      <c r="O128" s="29" t="e"/>
+      <c r="P128" s="30" t="e"/>
+      <c r="Q128" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R128" s="27" t="e"/>
+      <c r="S128" s="31" t="e"/>
+      <c r="T128" s="32" t="e"/>
+      <c r="U128" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="V128" s="33" t="e"/>
+      <c r="W128" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X128" s="33" t="e"/>
+      <c r="Y128" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z128" s="33" t="e"/>
+      <c r="AA128" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB128" s="33" t="e"/>
+      <c r="AC128" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD128" s="33" t="e"/>
+      <c r="AE128" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF128" s="33" t="e"/>
+      <c r="AG128" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH128" s="33" t="e"/>
+    </row>
+    <row r="129" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A129" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B129" s="27" t="e"/>
+      <c r="C129" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D129" s="28" t="e"/>
+      <c r="E129" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="27" t="e"/>
+      <c r="G129" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="27" t="e"/>
+      <c r="I129" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J129" s="27" t="e"/>
+      <c r="K129" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L129" s="27" t="e"/>
+      <c r="M129" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="N129" s="27" t="e"/>
+      <c r="O129" s="29" t="e"/>
+      <c r="P129" s="30" t="e"/>
+      <c r="Q129" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R129" s="27" t="e"/>
+      <c r="S129" s="31" t="e"/>
+      <c r="T129" s="32" t="e"/>
+      <c r="U129" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="V129" s="33" t="e"/>
+      <c r="W129" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X129" s="33" t="e"/>
+      <c r="Y129" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z129" s="33" t="e"/>
+      <c r="AA129" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB129" s="33" t="e"/>
+      <c r="AC129" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD129" s="33" t="e"/>
+      <c r="AE129" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF129" s="33" t="e"/>
+      <c r="AG129" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH129" s="33" t="e"/>
+    </row>
+    <row r="130" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A130" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="B130" s="27" t="e"/>
+      <c r="C130" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D130" s="28" t="e"/>
+      <c r="E130" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="27" t="e"/>
+      <c r="G130" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="27" t="e"/>
+      <c r="I130" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J130" s="27" t="e"/>
+      <c r="K130" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="27" t="e"/>
+      <c r="M130" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N130" s="27" t="e"/>
+      <c r="O130" s="29" t="e"/>
+      <c r="P130" s="30" t="e"/>
+      <c r="Q130" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="R130" s="27" t="e"/>
+      <c r="S130" s="31" t="e"/>
+      <c r="T130" s="32" t="e"/>
+      <c r="U130" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="V130" s="33" t="e"/>
+      <c r="W130" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X130" s="33" t="e"/>
+      <c r="Y130" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z130" s="33" t="e"/>
+      <c r="AA130" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB130" s="33" t="e"/>
+      <c r="AC130" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD130" s="33" t="e"/>
+      <c r="AE130" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF130" s="33" t="e"/>
+      <c r="AG130" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH130" s="33" t="e"/>
+    </row>
+    <row r="131" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A131" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B131" s="27" t="e"/>
+      <c r="C131" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D131" s="28" t="e"/>
+      <c r="E131" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="27" t="e"/>
+      <c r="G131" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="27" t="e"/>
+      <c r="I131" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J131" s="27" t="e"/>
+      <c r="K131" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L131" s="27" t="e"/>
+      <c r="M131" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N131" s="27" t="e"/>
+      <c r="O131" s="29" t="e"/>
+      <c r="P131" s="30" t="e"/>
+      <c r="Q131" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="R131" s="27" t="e"/>
+      <c r="S131" s="31" t="e"/>
+      <c r="T131" s="32" t="e"/>
+      <c r="U131" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="V131" s="33" t="e"/>
+      <c r="W131" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="X131" s="33" t="e"/>
+      <c r="Y131" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z131" s="33" t="e"/>
+      <c r="AA131" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB131" s="33" t="e"/>
+      <c r="AC131" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD131" s="33" t="e"/>
+      <c r="AE131" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF131" s="33" t="e"/>
+      <c r="AG131" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH131" s="33" t="e"/>
+    </row>
+    <row r="132" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A132" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="B132" s="27" t="e"/>
+      <c r="C132" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D132" s="28" t="e"/>
+      <c r="E132" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="27" t="e"/>
+      <c r="G132" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" s="27" t="e"/>
+      <c r="I132" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J132" s="27" t="e"/>
+      <c r="K132" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L132" s="27" t="e"/>
+      <c r="M132" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="N132" s="27" t="e"/>
+      <c r="O132" s="29" t="e"/>
+      <c r="P132" s="30" t="e"/>
+      <c r="Q132" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="R132" s="27" t="e"/>
+      <c r="S132" s="31" t="e"/>
+      <c r="T132" s="32" t="e"/>
+      <c r="U132" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="V132" s="33" t="e"/>
+      <c r="W132" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X132" s="33" t="e"/>
+      <c r="Y132" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z132" s="33" t="e"/>
+      <c r="AA132" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB132" s="33" t="e"/>
+      <c r="AC132" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD132" s="33" t="e"/>
+      <c r="AE132" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF132" s="33" t="e"/>
+      <c r="AG132" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH132" s="33" t="e"/>
+    </row>
+    <row r="133" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A133" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B133" s="27" t="e"/>
+      <c r="C133" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D133" s="28" t="e"/>
+      <c r="E133" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="27" t="e"/>
+      <c r="G133" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" s="27" t="e"/>
+      <c r="I133" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J133" s="27" t="e"/>
+      <c r="K133" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L133" s="27" t="e"/>
+      <c r="M133" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="N133" s="35" t="e"/>
+      <c r="O133" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="P133" s="35" t="e"/>
+      <c r="Q133" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="R133" s="35" t="e"/>
+      <c r="S133" s="31" t="e"/>
+      <c r="T133" s="32" t="e"/>
+      <c r="U133" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="V133" s="33" t="e"/>
+      <c r="W133" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X133" s="33" t="e"/>
+      <c r="Y133" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z133" s="33" t="e"/>
+      <c r="AA133" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB133" s="33" t="e"/>
+      <c r="AC133" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD133" s="33" t="e"/>
+      <c r="AE133" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF133" s="33" t="e"/>
+      <c r="AG133" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH133" s="33" t="e"/>
+    </row>
+    <row r="134" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A134" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134" s="27" t="e"/>
+      <c r="C134" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D134" s="28" t="e"/>
+      <c r="E134" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="27" t="e"/>
+      <c r="G134" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="27" t="e"/>
+      <c r="I134" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J134" s="27" t="e"/>
+      <c r="K134" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L134" s="27" t="e"/>
+      <c r="M134" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N134" s="35" t="e"/>
+      <c r="O134" s="29" t="e"/>
+      <c r="P134" s="30" t="e"/>
+      <c r="Q134" s="36" t="e"/>
+      <c r="R134" s="37" t="e"/>
+      <c r="S134" s="31" t="e"/>
+      <c r="T134" s="32" t="e"/>
+      <c r="U134" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="V134" s="33" t="e"/>
+      <c r="W134" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X134" s="33" t="e"/>
+      <c r="Y134" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z134" s="33" t="e"/>
+      <c r="AA134" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB134" s="33" t="e"/>
+      <c r="AC134" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD134" s="33" t="e"/>
+      <c r="AE134" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF134" s="33" t="e"/>
+      <c r="AG134" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH134" s="33" t="e"/>
+    </row>
+    <row r="135" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A135" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" s="27" t="e"/>
+      <c r="C135" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D135" s="28" t="e"/>
+      <c r="E135" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" s="27" t="e"/>
+      <c r="G135" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="27" t="e"/>
+      <c r="I135" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J135" s="27" t="e"/>
+      <c r="K135" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L135" s="27" t="e"/>
+      <c r="M135" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="N135" s="35" t="e"/>
+      <c r="O135" s="29" t="e"/>
+      <c r="P135" s="30" t="e"/>
+      <c r="Q135" s="36" t="e"/>
+      <c r="R135" s="37" t="e"/>
+      <c r="S135" s="31" t="e"/>
+      <c r="T135" s="32" t="e"/>
+      <c r="U135" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V135" s="33" t="e"/>
+      <c r="W135" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X135" s="33" t="e"/>
+      <c r="Y135" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z135" s="33" t="e"/>
+      <c r="AA135" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB135" s="33" t="e"/>
+      <c r="AC135" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD135" s="33" t="e"/>
+      <c r="AE135" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF135" s="33" t="e"/>
+      <c r="AG135" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH135" s="33" t="e"/>
+    </row>
+    <row r="136" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A136" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B136" s="27" t="e"/>
+      <c r="C136" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D136" s="28" t="e"/>
+      <c r="E136" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="27" t="e"/>
+      <c r="G136" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="27" t="e"/>
+      <c r="I136" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J136" s="27" t="e"/>
+      <c r="K136" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136" s="27" t="e"/>
+      <c r="M136" s="29" t="e"/>
+      <c r="N136" s="30" t="e"/>
+      <c r="O136" s="29" t="e"/>
+      <c r="P136" s="30" t="e"/>
+      <c r="Q136" s="29" t="e"/>
+      <c r="R136" s="30" t="e"/>
+      <c r="S136" s="31" t="e"/>
+      <c r="T136" s="32" t="e"/>
+      <c r="U136" s="31" t="e"/>
+      <c r="V136" s="32" t="e"/>
+      <c r="W136" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X136" s="33" t="e"/>
+      <c r="Y136" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z136" s="33" t="e"/>
+      <c r="AA136" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB136" s="33" t="e"/>
+      <c r="AC136" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD136" s="33" t="e"/>
+      <c r="AE136" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF136" s="33" t="e"/>
+      <c r="AG136" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH136" s="33" t="e"/>
+    </row>
+    <row r="137" ht="10" customHeight="true" s="1" customFormat="true"/>
   </sheetData>
-  <mergeCells count="1547">
+  <mergeCells count="1935">
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C3:R3"/>
     <mergeCell ref="C4:R4"/>
@@ -8183,7 +9979,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:X23"/>
     <mergeCell ref="Y23:Z23"/>
@@ -8200,6 +9995,7 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="W24:X24"/>
     <mergeCell ref="Y24:Z24"/>
@@ -8232,7 +10028,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="O26:P26"/>
     <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="Y26:Z26"/>
@@ -8283,6 +10078,7 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
     <mergeCell ref="U29:V29"/>
     <mergeCell ref="W29:X29"/>
     <mergeCell ref="Y29:Z29"/>
@@ -8315,7 +10111,6 @@
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
     <mergeCell ref="U31:V31"/>
     <mergeCell ref="W31:X31"/>
     <mergeCell ref="Y31:Z31"/>
@@ -8332,6 +10127,7 @@
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
     <mergeCell ref="U32:V32"/>
     <mergeCell ref="W32:X32"/>
     <mergeCell ref="Y32:Z32"/>
@@ -8348,7 +10144,6 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
     <mergeCell ref="U33:V33"/>
     <mergeCell ref="W33:X33"/>
     <mergeCell ref="Y33:Z33"/>
@@ -8365,6 +10160,7 @@
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
@@ -8397,7 +10193,6 @@
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
     <mergeCell ref="U36:V36"/>
     <mergeCell ref="W36:X36"/>
     <mergeCell ref="Y36:Z36"/>
@@ -8414,6 +10209,7 @@
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
     <mergeCell ref="U37:V37"/>
     <mergeCell ref="W37:X37"/>
     <mergeCell ref="Y37:Z37"/>
@@ -8462,7 +10258,6 @@
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
     <mergeCell ref="U40:V40"/>
     <mergeCell ref="W40:X40"/>
     <mergeCell ref="Y40:Z40"/>
@@ -8479,6 +10274,7 @@
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
     <mergeCell ref="U41:V41"/>
     <mergeCell ref="W41:X41"/>
     <mergeCell ref="Y41:Z41"/>
@@ -8495,7 +10291,6 @@
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
     <mergeCell ref="U42:V42"/>
     <mergeCell ref="W42:X42"/>
     <mergeCell ref="Y42:Z42"/>
@@ -8546,6 +10341,7 @@
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="O45:P45"/>
     <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="W45:X45"/>
     <mergeCell ref="Y45:Z45"/>
@@ -8578,7 +10374,6 @@
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="W47:X47"/>
     <mergeCell ref="Y47:Z47"/>
@@ -8595,7 +10390,6 @@
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="W48:X48"/>
     <mergeCell ref="Y48:Z48"/>
@@ -8628,6 +10422,7 @@
     <mergeCell ref="M50:N50"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
     <mergeCell ref="U50:V50"/>
     <mergeCell ref="W50:X50"/>
     <mergeCell ref="Y50:Z50"/>
@@ -8644,6 +10439,7 @@
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="O51:P51"/>
     <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
     <mergeCell ref="U51:V51"/>
     <mergeCell ref="W51:X51"/>
     <mergeCell ref="Y51:Z51"/>
@@ -8708,7 +10504,6 @@
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="O55:P55"/>
     <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
     <mergeCell ref="U55:V55"/>
     <mergeCell ref="W55:X55"/>
     <mergeCell ref="Y55:Z55"/>
@@ -8741,7 +10536,6 @@
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="O57:P57"/>
     <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
     <mergeCell ref="U57:V57"/>
     <mergeCell ref="W57:X57"/>
     <mergeCell ref="Y57:Z57"/>
@@ -8774,7 +10568,6 @@
     <mergeCell ref="M59:N59"/>
     <mergeCell ref="O59:P59"/>
     <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
     <mergeCell ref="U59:V59"/>
     <mergeCell ref="W59:X59"/>
     <mergeCell ref="Y59:Z59"/>
@@ -8791,6 +10584,7 @@
     <mergeCell ref="M60:N60"/>
     <mergeCell ref="O60:P60"/>
     <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
     <mergeCell ref="U60:V60"/>
     <mergeCell ref="W60:X60"/>
     <mergeCell ref="Y60:Z60"/>
@@ -8823,6 +10617,7 @@
     <mergeCell ref="M62:N62"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
     <mergeCell ref="U62:V62"/>
     <mergeCell ref="W62:X62"/>
     <mergeCell ref="Y62:Z62"/>
@@ -8839,7 +10634,6 @@
     <mergeCell ref="M63:N63"/>
     <mergeCell ref="O63:P63"/>
     <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
     <mergeCell ref="U63:V63"/>
     <mergeCell ref="W63:X63"/>
     <mergeCell ref="Y63:Z63"/>
@@ -8888,6 +10682,7 @@
     <mergeCell ref="M66:N66"/>
     <mergeCell ref="O66:P66"/>
     <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
     <mergeCell ref="U66:V66"/>
     <mergeCell ref="W66:X66"/>
     <mergeCell ref="Y66:Z66"/>
@@ -8936,6 +10731,7 @@
     <mergeCell ref="M69:N69"/>
     <mergeCell ref="O69:P69"/>
     <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
     <mergeCell ref="U69:V69"/>
     <mergeCell ref="W69:X69"/>
     <mergeCell ref="Y69:Z69"/>
@@ -8968,6 +10764,7 @@
     <mergeCell ref="M71:N71"/>
     <mergeCell ref="O71:P71"/>
     <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
     <mergeCell ref="U71:V71"/>
     <mergeCell ref="W71:X71"/>
     <mergeCell ref="Y71:Z71"/>
@@ -9065,6 +10862,7 @@
     <mergeCell ref="M77:N77"/>
     <mergeCell ref="O77:P77"/>
     <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
     <mergeCell ref="U77:V77"/>
     <mergeCell ref="W77:X77"/>
     <mergeCell ref="Y77:Z77"/>
@@ -9081,7 +10879,6 @@
     <mergeCell ref="M78:N78"/>
     <mergeCell ref="O78:P78"/>
     <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="S78:T78"/>
     <mergeCell ref="U78:V78"/>
     <mergeCell ref="W78:X78"/>
     <mergeCell ref="Y78:Z78"/>
@@ -9114,7 +10911,6 @@
     <mergeCell ref="M80:N80"/>
     <mergeCell ref="O80:P80"/>
     <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="S80:T80"/>
     <mergeCell ref="U80:V80"/>
     <mergeCell ref="W80:X80"/>
     <mergeCell ref="Y80:Z80"/>
@@ -9147,7 +10943,6 @@
     <mergeCell ref="M82:N82"/>
     <mergeCell ref="O82:P82"/>
     <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="S82:T82"/>
     <mergeCell ref="U82:V82"/>
     <mergeCell ref="W82:X82"/>
     <mergeCell ref="Y82:Z82"/>
@@ -9180,7 +10975,6 @@
     <mergeCell ref="M84:N84"/>
     <mergeCell ref="O84:P84"/>
     <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:T84"/>
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="W84:X84"/>
     <mergeCell ref="Y84:Z84"/>
@@ -9245,6 +11039,7 @@
     <mergeCell ref="M88:N88"/>
     <mergeCell ref="O88:P88"/>
     <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="S88:T88"/>
     <mergeCell ref="U88:V88"/>
     <mergeCell ref="W88:X88"/>
     <mergeCell ref="Y88:Z88"/>
@@ -9325,6 +11120,7 @@
     <mergeCell ref="M93:N93"/>
     <mergeCell ref="O93:P93"/>
     <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="S93:T93"/>
     <mergeCell ref="U93:V93"/>
     <mergeCell ref="W93:X93"/>
     <mergeCell ref="Y93:Z93"/>
@@ -9357,6 +11153,7 @@
     <mergeCell ref="M95:N95"/>
     <mergeCell ref="O95:P95"/>
     <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="S95:T95"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="W95:X95"/>
     <mergeCell ref="Y95:Z95"/>
@@ -9387,8 +11184,8 @@
     <mergeCell ref="I97:J97"/>
     <mergeCell ref="K97:L97"/>
     <mergeCell ref="M97:N97"/>
+    <mergeCell ref="O97:P97"/>
     <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="S97:T97"/>
     <mergeCell ref="U97:V97"/>
     <mergeCell ref="W97:X97"/>
     <mergeCell ref="Y97:Z97"/>
@@ -9419,7 +11216,9 @@
     <mergeCell ref="I99:J99"/>
     <mergeCell ref="K99:L99"/>
     <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O99:P99"/>
     <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="S99:T99"/>
     <mergeCell ref="U99:V99"/>
     <mergeCell ref="W99:X99"/>
     <mergeCell ref="Y99:Z99"/>
@@ -9434,6 +11233,7 @@
     <mergeCell ref="I100:J100"/>
     <mergeCell ref="K100:L100"/>
     <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O100:P100"/>
     <mergeCell ref="Q100:R100"/>
     <mergeCell ref="S100:T100"/>
     <mergeCell ref="U100:V100"/>
@@ -9450,6 +11250,7 @@
     <mergeCell ref="I101:J101"/>
     <mergeCell ref="K101:L101"/>
     <mergeCell ref="M101:N101"/>
+    <mergeCell ref="O101:P101"/>
     <mergeCell ref="Q101:R101"/>
     <mergeCell ref="U101:V101"/>
     <mergeCell ref="W101:X101"/>
@@ -9465,7 +11266,9 @@
     <mergeCell ref="I102:J102"/>
     <mergeCell ref="K102:L102"/>
     <mergeCell ref="M102:N102"/>
+    <mergeCell ref="O102:P102"/>
     <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S102:T102"/>
     <mergeCell ref="U102:V102"/>
     <mergeCell ref="W102:X102"/>
     <mergeCell ref="Y102:Z102"/>
@@ -9480,6 +11283,7 @@
     <mergeCell ref="I103:J103"/>
     <mergeCell ref="K103:L103"/>
     <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:P103"/>
     <mergeCell ref="Q103:R103"/>
     <mergeCell ref="U103:V103"/>
     <mergeCell ref="W103:X103"/>
@@ -9495,6 +11299,7 @@
     <mergeCell ref="I104:J104"/>
     <mergeCell ref="K104:L104"/>
     <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:P104"/>
     <mergeCell ref="Q104:R104"/>
     <mergeCell ref="U104:V104"/>
     <mergeCell ref="W104:X104"/>
@@ -9510,6 +11315,7 @@
     <mergeCell ref="I105:J105"/>
     <mergeCell ref="K105:L105"/>
     <mergeCell ref="M105:N105"/>
+    <mergeCell ref="O105:P105"/>
     <mergeCell ref="Q105:R105"/>
     <mergeCell ref="U105:V105"/>
     <mergeCell ref="W105:X105"/>
@@ -9525,6 +11331,7 @@
     <mergeCell ref="I106:J106"/>
     <mergeCell ref="K106:L106"/>
     <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P106"/>
     <mergeCell ref="Q106:R106"/>
     <mergeCell ref="U106:V106"/>
     <mergeCell ref="W106:X106"/>
@@ -9540,6 +11347,7 @@
     <mergeCell ref="I107:J107"/>
     <mergeCell ref="K107:L107"/>
     <mergeCell ref="M107:N107"/>
+    <mergeCell ref="O107:P107"/>
     <mergeCell ref="Q107:R107"/>
     <mergeCell ref="U107:V107"/>
     <mergeCell ref="W107:X107"/>
@@ -9555,6 +11363,7 @@
     <mergeCell ref="I108:J108"/>
     <mergeCell ref="K108:L108"/>
     <mergeCell ref="M108:N108"/>
+    <mergeCell ref="O108:P108"/>
     <mergeCell ref="Q108:R108"/>
     <mergeCell ref="U108:V108"/>
     <mergeCell ref="W108:X108"/>
@@ -9570,6 +11379,8 @@
     <mergeCell ref="I109:J109"/>
     <mergeCell ref="K109:L109"/>
     <mergeCell ref="M109:N109"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="Q109:R109"/>
     <mergeCell ref="U109:V109"/>
     <mergeCell ref="W109:X109"/>
     <mergeCell ref="Y109:Z109"/>
@@ -9584,6 +11395,9 @@
     <mergeCell ref="I110:J110"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="M110:N110"/>
+    <mergeCell ref="O110:P110"/>
+    <mergeCell ref="Q110:R110"/>
+    <mergeCell ref="S110:T110"/>
     <mergeCell ref="U110:V110"/>
     <mergeCell ref="W110:X110"/>
     <mergeCell ref="Y110:Z110"/>
@@ -9598,6 +11412,8 @@
     <mergeCell ref="I111:J111"/>
     <mergeCell ref="K111:L111"/>
     <mergeCell ref="M111:N111"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="Q111:R111"/>
     <mergeCell ref="U111:V111"/>
     <mergeCell ref="W111:X111"/>
     <mergeCell ref="Y111:Z111"/>
@@ -9611,12 +11427,380 @@
     <mergeCell ref="G112:H112"/>
     <mergeCell ref="I112:J112"/>
     <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="Q112:R112"/>
+    <mergeCell ref="U112:V112"/>
     <mergeCell ref="W112:X112"/>
     <mergeCell ref="Y112:Z112"/>
     <mergeCell ref="AA112:AB112"/>
     <mergeCell ref="AC112:AD112"/>
     <mergeCell ref="AE112:AF112"/>
     <mergeCell ref="AG112:AH112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="Q113:R113"/>
+    <mergeCell ref="U113:V113"/>
+    <mergeCell ref="W113:X113"/>
+    <mergeCell ref="Y113:Z113"/>
+    <mergeCell ref="AA113:AB113"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="AE113:AF113"/>
+    <mergeCell ref="AG113:AH113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="Q114:R114"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="W114:X114"/>
+    <mergeCell ref="Y114:Z114"/>
+    <mergeCell ref="AA114:AB114"/>
+    <mergeCell ref="AC114:AD114"/>
+    <mergeCell ref="AE114:AF114"/>
+    <mergeCell ref="AG114:AH114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="Q115:R115"/>
+    <mergeCell ref="U115:V115"/>
+    <mergeCell ref="W115:X115"/>
+    <mergeCell ref="Y115:Z115"/>
+    <mergeCell ref="AA115:AB115"/>
+    <mergeCell ref="AC115:AD115"/>
+    <mergeCell ref="AE115:AF115"/>
+    <mergeCell ref="AG115:AH115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="W116:X116"/>
+    <mergeCell ref="Y116:Z116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AE116:AF116"/>
+    <mergeCell ref="AG116:AH116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="Q117:R117"/>
+    <mergeCell ref="U117:V117"/>
+    <mergeCell ref="W117:X117"/>
+    <mergeCell ref="Y117:Z117"/>
+    <mergeCell ref="AA117:AB117"/>
+    <mergeCell ref="AC117:AD117"/>
+    <mergeCell ref="AE117:AF117"/>
+    <mergeCell ref="AG117:AH117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="U118:V118"/>
+    <mergeCell ref="W118:X118"/>
+    <mergeCell ref="Y118:Z118"/>
+    <mergeCell ref="AA118:AB118"/>
+    <mergeCell ref="AC118:AD118"/>
+    <mergeCell ref="AE118:AF118"/>
+    <mergeCell ref="AG118:AH118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="S119:T119"/>
+    <mergeCell ref="U119:V119"/>
+    <mergeCell ref="W119:X119"/>
+    <mergeCell ref="Y119:Z119"/>
+    <mergeCell ref="AA119:AB119"/>
+    <mergeCell ref="AC119:AD119"/>
+    <mergeCell ref="AE119:AF119"/>
+    <mergeCell ref="AG119:AH119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="Q120:R120"/>
+    <mergeCell ref="U120:V120"/>
+    <mergeCell ref="W120:X120"/>
+    <mergeCell ref="Y120:Z120"/>
+    <mergeCell ref="AA120:AB120"/>
+    <mergeCell ref="AC120:AD120"/>
+    <mergeCell ref="AE120:AF120"/>
+    <mergeCell ref="AG120:AH120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="U121:V121"/>
+    <mergeCell ref="W121:X121"/>
+    <mergeCell ref="Y121:Z121"/>
+    <mergeCell ref="AA121:AB121"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="AE121:AF121"/>
+    <mergeCell ref="AG121:AH121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="Y122:Z122"/>
+    <mergeCell ref="AA122:AB122"/>
+    <mergeCell ref="AC122:AD122"/>
+    <mergeCell ref="AE122:AF122"/>
+    <mergeCell ref="AG122:AH122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="Y123:Z123"/>
+    <mergeCell ref="AA123:AB123"/>
+    <mergeCell ref="AC123:AD123"/>
+    <mergeCell ref="AE123:AF123"/>
+    <mergeCell ref="AG123:AH123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="U124:V124"/>
+    <mergeCell ref="W124:X124"/>
+    <mergeCell ref="Y124:Z124"/>
+    <mergeCell ref="AA124:AB124"/>
+    <mergeCell ref="AC124:AD124"/>
+    <mergeCell ref="AE124:AF124"/>
+    <mergeCell ref="AG124:AH124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="Q125:R125"/>
+    <mergeCell ref="U125:V125"/>
+    <mergeCell ref="W125:X125"/>
+    <mergeCell ref="Y125:Z125"/>
+    <mergeCell ref="AA125:AB125"/>
+    <mergeCell ref="AC125:AD125"/>
+    <mergeCell ref="AE125:AF125"/>
+    <mergeCell ref="AG125:AH125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="Q126:R126"/>
+    <mergeCell ref="U126:V126"/>
+    <mergeCell ref="W126:X126"/>
+    <mergeCell ref="Y126:Z126"/>
+    <mergeCell ref="AA126:AB126"/>
+    <mergeCell ref="AC126:AD126"/>
+    <mergeCell ref="AE126:AF126"/>
+    <mergeCell ref="AG126:AH126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="U127:V127"/>
+    <mergeCell ref="W127:X127"/>
+    <mergeCell ref="Y127:Z127"/>
+    <mergeCell ref="AA127:AB127"/>
+    <mergeCell ref="AC127:AD127"/>
+    <mergeCell ref="AE127:AF127"/>
+    <mergeCell ref="AG127:AH127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="U128:V128"/>
+    <mergeCell ref="W128:X128"/>
+    <mergeCell ref="Y128:Z128"/>
+    <mergeCell ref="AA128:AB128"/>
+    <mergeCell ref="AC128:AD128"/>
+    <mergeCell ref="AE128:AF128"/>
+    <mergeCell ref="AG128:AH128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="U129:V129"/>
+    <mergeCell ref="W129:X129"/>
+    <mergeCell ref="Y129:Z129"/>
+    <mergeCell ref="AA129:AB129"/>
+    <mergeCell ref="AC129:AD129"/>
+    <mergeCell ref="AE129:AF129"/>
+    <mergeCell ref="AG129:AH129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="U130:V130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="Y130:Z130"/>
+    <mergeCell ref="AA130:AB130"/>
+    <mergeCell ref="AC130:AD130"/>
+    <mergeCell ref="AE130:AF130"/>
+    <mergeCell ref="AG130:AH130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="U131:V131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="Y131:Z131"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AE131:AF131"/>
+    <mergeCell ref="AG131:AH131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="U132:V132"/>
+    <mergeCell ref="W132:X132"/>
+    <mergeCell ref="Y132:Z132"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="AC132:AD132"/>
+    <mergeCell ref="AE132:AF132"/>
+    <mergeCell ref="AG132:AH132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="U133:V133"/>
+    <mergeCell ref="W133:X133"/>
+    <mergeCell ref="Y133:Z133"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="AC133:AD133"/>
+    <mergeCell ref="AE133:AF133"/>
+    <mergeCell ref="AG133:AH133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="U134:V134"/>
+    <mergeCell ref="W134:X134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="AC134:AD134"/>
+    <mergeCell ref="AE134:AF134"/>
+    <mergeCell ref="AG134:AH134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="U135:V135"/>
+    <mergeCell ref="W135:X135"/>
+    <mergeCell ref="Y135:Z135"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="AC135:AD135"/>
+    <mergeCell ref="AE135:AF135"/>
+    <mergeCell ref="AG135:AH135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="W136:X136"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AE136:AF136"/>
+    <mergeCell ref="AG136:AH136"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait"/>
